--- a/JD DCF.xlsx
+++ b/JD DCF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente1\Desktop\DCFs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B358AB1C-8DE8-408E-8B8B-ACA393421E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1230D6-EB15-4C19-B3CB-896B97E35762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{AED10510-8238-4EDE-B018-BD7F77967871}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="193">
   <si>
     <t xml:space="preserve">Valuation Assumptions: </t>
   </si>
@@ -468,9 +468,6 @@
     <t>Cash paid for construction in progress</t>
   </si>
   <si>
-    <t>Note2(g)</t>
-  </si>
-  <si>
     <t>Loss from discontinued operations, net of income tax</t>
   </si>
   <si>
@@ -517,6 +514,99 @@
   </si>
   <si>
     <t>JD.com DCF</t>
+  </si>
+  <si>
+    <t>Accounts</t>
+  </si>
+  <si>
+    <t>receivable</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>Prepayments</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>assets</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>parties</t>
+  </si>
+  <si>
+    <t>Operating</t>
+  </si>
+  <si>
+    <t>lease</t>
+  </si>
+  <si>
+    <t>right-of-use</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>non-current</t>
+  </si>
+  <si>
+    <t>payable</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>revenues</t>
+  </si>
+  <si>
+    <t>Accrued</t>
+  </si>
+  <si>
+    <t>expenses</t>
+  </si>
+  <si>
+    <t>liabilities</t>
+  </si>
+  <si>
+    <t>Changes</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>operating</t>
+  </si>
+  <si>
+    <t>liabilities:</t>
   </si>
 </sst>
 </file>
@@ -526,7 +616,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="\(#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="168" formatCode="0.00000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -848,7 +938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -949,33 +1039,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931D9B77-4948-48A4-A619-C1F4913720ED}">
   <dimension ref="A1:CH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1429,7 @@
     <row r="2" spans="1:86" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1402,7 +1495,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="8">
         <f>WACC!K14</f>
-        <v>0.10559907129591536</v>
+        <v>9.6074249369029849E-2</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -1419,7 +1512,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="65">
         <f>(J6/J5)-1</f>
-        <v>0.68762996545002553</v>
+        <v>0.74768934291592282</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1442,7 +1535,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="7">
         <f>2/3*G70+1/3*H70</f>
-        <v>58.51013090215239</v>
+        <v>60.592389518895047</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
@@ -1450,7 +1543,7 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="64">
-        <v>45051</v>
+        <v>45130</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1565,34 +1658,34 @@
       <c r="H10" s="10">
         <v>2022</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="73">
         <v>2023</v>
       </c>
-      <c r="J10" s="82">
+      <c r="J10" s="80">
         <v>2024</v>
       </c>
-      <c r="K10" s="82">
+      <c r="K10" s="80">
         <v>2025</v>
       </c>
-      <c r="L10" s="82">
+      <c r="L10" s="80">
         <v>2026</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="80">
         <v>2027</v>
       </c>
-      <c r="N10" s="82">
+      <c r="N10" s="80">
         <v>2028</v>
       </c>
-      <c r="O10" s="82">
+      <c r="O10" s="80">
         <v>2029</v>
       </c>
-      <c r="P10" s="82">
+      <c r="P10" s="80">
         <v>2030</v>
       </c>
-      <c r="Q10" s="82">
+      <c r="Q10" s="80">
         <v>2031</v>
       </c>
-      <c r="R10" s="82">
+      <c r="R10" s="80">
         <v>2032</v>
       </c>
       <c r="S10" s="10">
@@ -1829,101 +1922,101 @@
         <f>'Raw IS'!P13</f>
         <v>1046236</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="74">
         <f>H11*(1+I12)</f>
         <v>1099810</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="25">
         <f t="shared" ref="J11:R11" si="1">I11*(1+J12)</f>
         <v>1212580</v>
       </c>
-      <c r="K11" s="83">
+      <c r="K11" s="25">
         <f t="shared" si="1"/>
         <v>1324670</v>
       </c>
-      <c r="L11" s="83">
+      <c r="L11" s="25">
         <f t="shared" si="1"/>
         <v>1408560</v>
       </c>
-      <c r="M11" s="83">
+      <c r="M11" s="25">
         <f t="shared" si="1"/>
         <v>1501880</v>
       </c>
-      <c r="N11" s="83">
+      <c r="N11" s="25">
         <f t="shared" si="1"/>
         <v>1586870</v>
       </c>
-      <c r="O11" s="83">
+      <c r="O11" s="25">
         <f t="shared" si="1"/>
         <v>1628840</v>
       </c>
-      <c r="P11" s="83">
+      <c r="P11" s="25">
         <f t="shared" si="1"/>
         <v>1694490.0000000002</v>
       </c>
-      <c r="Q11" s="83">
+      <c r="Q11" s="25">
         <f t="shared" si="1"/>
         <v>1782020.0000000002</v>
       </c>
-      <c r="R11" s="83">
+      <c r="R11" s="25">
         <f t="shared" si="1"/>
         <v>1886070.0000000002</v>
       </c>
     </row>
     <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89">
+      <c r="C12" s="83"/>
+      <c r="D12" s="83">
         <f>(D11/C11)-1</f>
         <v>0.27512908791317248</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="83">
         <f t="shared" ref="E12:H12" si="2">(E11/D11)-1</f>
         <v>0.24862297068987482</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="83">
         <f t="shared" si="2"/>
         <v>0.29280098439267843</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="83">
         <f t="shared" si="2"/>
         <v>0.27593114526375628</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="83">
         <f t="shared" si="2"/>
         <v>9.945859149719638E-2</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="84">
         <v>5.1206419966431937E-2</v>
       </c>
-      <c r="J12" s="91">
+      <c r="J12" s="85">
         <v>0.1025358925632609</v>
       </c>
-      <c r="K12" s="91">
+      <c r="K12" s="85">
         <v>9.2439261739431622E-2</v>
       </c>
-      <c r="L12" s="91">
+      <c r="L12" s="85">
         <v>6.3328980047860917E-2</v>
       </c>
-      <c r="M12" s="91">
+      <c r="M12" s="85">
         <v>6.6252058840233996E-2</v>
       </c>
-      <c r="N12" s="91">
+      <c r="N12" s="85">
         <v>5.6589075025967439E-2</v>
       </c>
-      <c r="O12" s="91">
+      <c r="O12" s="85">
         <v>2.6448291290401826E-2</v>
       </c>
-      <c r="P12" s="91">
+      <c r="P12" s="85">
         <v>4.0304756759411697E-2</v>
       </c>
-      <c r="Q12" s="91">
+      <c r="Q12" s="85">
         <v>5.1655660405195647E-2</v>
       </c>
-      <c r="R12" s="91">
+      <c r="R12" s="85">
         <v>5.8388794738555072E-2</v>
       </c>
     </row>
@@ -1936,16 +2029,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1976,43 +2060,43 @@
         <f>'Raw IS'!P15</f>
         <v>-899163</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="76">
         <f>I16-I11</f>
         <v>-938687.83499999996</v>
       </c>
-      <c r="J14" s="87">
+      <c r="J14" s="81">
         <f t="shared" ref="J14:R14" si="3">J16-J11</f>
         <v>-1033845.708</v>
       </c>
-      <c r="K14" s="87">
+      <c r="K14" s="81">
         <f t="shared" si="3"/>
         <v>-1125307.165</v>
       </c>
-      <c r="L14" s="87">
+      <c r="L14" s="81">
         <f t="shared" si="3"/>
         <v>-1198684.56</v>
       </c>
-      <c r="M14" s="87">
+      <c r="M14" s="81">
         <f t="shared" si="3"/>
         <v>-1275096.1200000001</v>
       </c>
-      <c r="N14" s="87">
+      <c r="N14" s="81">
         <f t="shared" si="3"/>
         <v>-1344078.8900000001</v>
       </c>
-      <c r="O14" s="87">
+      <c r="O14" s="81">
         <f t="shared" si="3"/>
         <v>-1376369.8</v>
       </c>
-      <c r="P14" s="87">
+      <c r="P14" s="81">
         <f t="shared" si="3"/>
         <v>-1428455.0700000003</v>
       </c>
-      <c r="Q14" s="87">
+      <c r="Q14" s="81">
         <f t="shared" si="3"/>
         <v>-1498678.8200000003</v>
       </c>
-      <c r="R14" s="87">
+      <c r="R14" s="81">
         <f t="shared" si="3"/>
         <v>-1582412.7300000002</v>
       </c>
@@ -2026,16 +2110,7 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
+      <c r="I15" s="75"/>
     </row>
     <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -2066,104 +2141,104 @@
         <f t="shared" si="4"/>
         <v>147073</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="74">
         <f>I11*I17</f>
         <v>161122.16499999998</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="25">
         <f t="shared" ref="J16:R16" si="5">J11*J17</f>
         <v>178734.29200000002</v>
       </c>
-      <c r="K16" s="83">
+      <c r="K16" s="25">
         <f t="shared" si="5"/>
         <v>199362.83499999999</v>
       </c>
-      <c r="L16" s="83">
+      <c r="L16" s="25">
         <f t="shared" si="5"/>
         <v>209875.44</v>
       </c>
-      <c r="M16" s="83">
+      <c r="M16" s="25">
         <f t="shared" si="5"/>
         <v>226783.88</v>
       </c>
-      <c r="N16" s="83">
+      <c r="N16" s="25">
         <f t="shared" si="5"/>
         <v>242791.11</v>
       </c>
-      <c r="O16" s="83">
+      <c r="O16" s="25">
         <f t="shared" si="5"/>
         <v>252470.2</v>
       </c>
-      <c r="P16" s="83">
+      <c r="P16" s="25">
         <f t="shared" si="5"/>
         <v>266034.93000000005</v>
       </c>
-      <c r="Q16" s="83">
+      <c r="Q16" s="25">
         <f t="shared" si="5"/>
         <v>283341.18000000005</v>
       </c>
-      <c r="R16" s="83">
+      <c r="R16" s="25">
         <f t="shared" si="5"/>
         <v>303657.27</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17" s="83">
         <f>C16/C11</f>
         <v>0.14024418903124899</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="83">
         <f t="shared" ref="D17:H17" si="6">D16/D11</f>
         <v>0.14275067616751003</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E17" s="83">
         <f t="shared" si="6"/>
         <v>0.14633866915603058</v>
       </c>
-      <c r="F17" s="89">
+      <c r="F17" s="83">
         <f t="shared" si="6"/>
         <v>0.14629620194099774</v>
       </c>
-      <c r="G17" s="89">
+      <c r="G17" s="83">
         <f t="shared" si="6"/>
         <v>0.13563165726487822</v>
       </c>
-      <c r="H17" s="89">
+      <c r="H17" s="83">
         <f t="shared" si="6"/>
         <v>0.14057344614408221</v>
       </c>
-      <c r="I17" s="92">
+      <c r="I17" s="86">
         <v>0.14649999999999999</v>
       </c>
-      <c r="J17" s="93">
+      <c r="J17" s="87">
         <v>0.1474</v>
       </c>
-      <c r="K17" s="93">
+      <c r="K17" s="87">
         <v>0.15049999999999999</v>
       </c>
-      <c r="L17" s="93">
+      <c r="L17" s="87">
         <v>0.14899999999999999</v>
       </c>
-      <c r="M17" s="93">
+      <c r="M17" s="87">
         <v>0.151</v>
       </c>
-      <c r="N17" s="93">
+      <c r="N17" s="87">
         <v>0.153</v>
       </c>
-      <c r="O17" s="93">
+      <c r="O17" s="87">
         <v>0.155</v>
       </c>
-      <c r="P17" s="93">
+      <c r="P17" s="87">
         <v>0.157</v>
       </c>
-      <c r="Q17" s="93">
+      <c r="Q17" s="87">
         <v>0.159</v>
       </c>
-      <c r="R17" s="93">
+      <c r="R17" s="87">
         <v>0.161</v>
       </c>
     </row>
@@ -2176,16 +2251,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -2216,105 +2282,105 @@
         <f>'Raw IS'!P18</f>
         <v>-16893</v>
       </c>
-      <c r="I19" s="76">
-        <v>-17506.801975439997</v>
-      </c>
-      <c r="J19" s="83">
-        <v>-19301.877541919999</v>
-      </c>
-      <c r="K19" s="83">
+      <c r="I19" s="74">
+        <f>I20*I11</f>
+        <v>-16497.149999999998</v>
+      </c>
+      <c r="J19" s="94">
+        <f t="shared" ref="J19:R19" si="7">J20*J11</f>
+        <v>-18188.7</v>
+      </c>
+      <c r="K19" s="94">
+        <f t="shared" si="7"/>
         <v>-20207.540149910001</v>
       </c>
-      <c r="L19" s="83">
+      <c r="L19" s="94">
+        <f t="shared" si="7"/>
         <v>-20926.725759744</v>
       </c>
-      <c r="M19" s="83">
-        <v>-21914.715061359999</v>
-      </c>
-      <c r="N19" s="83">
-        <v>-22102.355401770001</v>
-      </c>
-      <c r="O19" s="83">
-        <v>-22686.924935639996</v>
-      </c>
-      <c r="P19" s="83">
-        <v>-23196.721939473602</v>
-      </c>
-      <c r="Q19" s="83">
+      <c r="M19" s="94">
+        <f t="shared" si="7"/>
+        <v>-21777.260000000002</v>
+      </c>
+      <c r="N19" s="94">
+        <f t="shared" si="7"/>
+        <v>-23009.615000000002</v>
+      </c>
+      <c r="O19" s="94">
+        <f t="shared" si="7"/>
+        <v>-22803.760000000002</v>
+      </c>
+      <c r="P19" s="94">
+        <f t="shared" si="7"/>
+        <v>-23722.860000000004</v>
+      </c>
+      <c r="Q19" s="94">
+        <f t="shared" si="7"/>
         <v>-24111.301559208001</v>
       </c>
-      <c r="R19" s="83">
-        <v>-25268.943834114005</v>
+      <c r="R19" s="94">
+        <f t="shared" si="7"/>
+        <v>-25519.131396828001</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="89">
+      <c r="C20" s="83">
         <f>C19/C11</f>
         <v>-1.8359897874145471E-2</v>
       </c>
-      <c r="D20" s="89">
-        <f t="shared" ref="D20:R20" si="7">D19/D11</f>
+      <c r="D20" s="83">
+        <f t="shared" ref="D20:R20" si="8">D19/D11</f>
         <v>-2.6285419104770363E-2</v>
       </c>
-      <c r="E20" s="89">
-        <f t="shared" si="7"/>
+      <c r="E20" s="83">
+        <f t="shared" si="8"/>
         <v>-2.5340559580315697E-2</v>
       </c>
-      <c r="F20" s="89">
-        <f t="shared" si="7"/>
+      <c r="F20" s="83">
+        <f t="shared" si="8"/>
         <v>-2.1653200179136016E-2</v>
       </c>
-      <c r="G20" s="89">
-        <f t="shared" si="7"/>
+      <c r="G20" s="83">
+        <f t="shared" si="8"/>
         <v>-1.7162817678164591E-2</v>
       </c>
-      <c r="H20" s="89">
-        <f t="shared" si="7"/>
+      <c r="H20" s="83">
+        <f t="shared" si="8"/>
         <v>-1.614645261680921E-2</v>
       </c>
-      <c r="I20" s="90">
-        <f t="shared" si="7"/>
-        <v>-1.5918023999999999E-2</v>
-      </c>
-      <c r="J20" s="91">
-        <f t="shared" si="7"/>
-        <v>-1.5918023999999999E-2</v>
-      </c>
-      <c r="K20" s="91">
-        <f t="shared" si="7"/>
+      <c r="I20" s="84">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="J20" s="85">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="K20" s="85">
         <v>-1.5254773000000001E-2</v>
       </c>
-      <c r="L20" s="91">
-        <f t="shared" si="7"/>
+      <c r="L20" s="85">
         <v>-1.4856822400000001E-2</v>
       </c>
-      <c r="M20" s="91">
-        <f t="shared" si="7"/>
-        <v>-1.4591521999999999E-2</v>
-      </c>
-      <c r="N20" s="91">
-        <f t="shared" si="7"/>
-        <v>-1.3928271000000001E-2</v>
-      </c>
-      <c r="O20" s="91">
-        <f t="shared" si="7"/>
-        <v>-1.3928270999999997E-2</v>
-      </c>
-      <c r="P20" s="91">
-        <f t="shared" si="7"/>
-        <v>-1.3689500639999999E-2</v>
-      </c>
-      <c r="Q20" s="91">
-        <f t="shared" si="7"/>
+      <c r="M20" s="85">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+      <c r="N20" s="85">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+      <c r="O20" s="85">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="P20" s="85">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="Q20" s="85">
         <v>-1.3530320399999999E-2</v>
       </c>
-      <c r="R20" s="91">
-        <f t="shared" si="7"/>
-        <v>-1.3397670200000001E-2</v>
+      <c r="R20" s="85">
+        <v>-1.3530320399999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2325,17 +2391,17 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="83"/>
-      <c r="O21" s="83"/>
-      <c r="P21" s="83"/>
-      <c r="Q21" s="83"/>
-      <c r="R21" s="83"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="94"/>
+      <c r="L21" s="94"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="94"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -2366,105 +2432,105 @@
         <f>'Raw IS'!P16+'Raw IS'!P17</f>
         <v>-100783</v>
       </c>
-      <c r="I22" s="76">
-        <v>-104444.89520147999</v>
-      </c>
-      <c r="J22" s="83">
-        <v>-115154.24575464</v>
-      </c>
-      <c r="K22" s="83">
-        <v>-120557.39341759501</v>
-      </c>
-      <c r="L22" s="83">
+      <c r="I22" s="74">
+        <f>I23*I11</f>
+        <v>-101182.52</v>
+      </c>
+      <c r="J22" s="94">
+        <f t="shared" ref="J22:R22" si="9">J23*J11</f>
+        <v>-109495.974</v>
+      </c>
+      <c r="K22" s="94">
+        <f t="shared" si="9"/>
+        <v>-119220.29999999999</v>
+      </c>
+      <c r="L22" s="94">
+        <f t="shared" si="9"/>
         <v>-124848.02661004799</v>
       </c>
-      <c r="M22" s="83">
-        <v>-130742.33210411998</v>
-      </c>
-      <c r="N22" s="83">
-        <v>-131861.78702896499</v>
-      </c>
-      <c r="O22" s="83">
-        <v>-135349.30598237997</v>
-      </c>
-      <c r="P22" s="83">
-        <v>-138390.73494891121</v>
-      </c>
-      <c r="Q22" s="83">
-        <v>-143847.08115483599</v>
-      </c>
-      <c r="R22" s="83">
-        <v>-150753.52964571302</v>
+      <c r="M22" s="94">
+        <f t="shared" si="9"/>
+        <v>-132165.44</v>
+      </c>
+      <c r="N22" s="94">
+        <f t="shared" si="9"/>
+        <v>-136470.81999999998</v>
+      </c>
+      <c r="O22" s="94">
+        <f t="shared" si="9"/>
+        <v>-138451.40000000002</v>
+      </c>
+      <c r="P22" s="94">
+        <f t="shared" si="9"/>
+        <v>-139795.42500000002</v>
+      </c>
+      <c r="Q22" s="94">
+        <f t="shared" si="9"/>
+        <v>-142561.60000000003</v>
+      </c>
+      <c r="R22" s="94">
+        <f t="shared" si="9"/>
+        <v>-150885.60000000003</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23" s="83">
         <f>C22/C11</f>
         <v>-0.11255771692590873</v>
       </c>
-      <c r="D23" s="89">
-        <f t="shared" ref="D23:R23" si="8">D22/D11</f>
+      <c r="D23" s="83">
+        <f t="shared" ref="D23:R23" si="10">D22/D11</f>
         <v>-0.11091819560037475</v>
       </c>
-      <c r="E23" s="89">
-        <f t="shared" si="8"/>
+      <c r="E23" s="83">
+        <f t="shared" si="10"/>
         <v>-0.10262310245735465</v>
       </c>
-      <c r="F23" s="89">
-        <f t="shared" si="8"/>
+      <c r="F23" s="83">
+        <f t="shared" si="10"/>
         <v>-0.10171064169846689</v>
       </c>
-      <c r="G23" s="89">
-        <f t="shared" si="8"/>
+      <c r="G23" s="83">
+        <f t="shared" si="10"/>
         <v>-0.10277303718400323</v>
       </c>
-      <c r="H23" s="89">
-        <f t="shared" si="8"/>
+      <c r="H23" s="83">
+        <f t="shared" si="10"/>
         <v>-9.6329126506830204E-2</v>
       </c>
-      <c r="I23" s="90">
-        <f t="shared" si="8"/>
-        <v>-9.4966307999999985E-2</v>
-      </c>
-      <c r="J23" s="91">
-        <f t="shared" si="8"/>
-        <v>-9.4966307999999999E-2</v>
-      </c>
-      <c r="K23" s="91">
-        <f t="shared" si="8"/>
-        <v>-9.1009378500000015E-2</v>
-      </c>
-      <c r="L23" s="91">
-        <f t="shared" si="8"/>
+      <c r="I23" s="84">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="J23" s="85">
+        <v>-9.0300000000000005E-2</v>
+      </c>
+      <c r="K23" s="85">
+        <v>-0.09</v>
+      </c>
+      <c r="L23" s="85">
         <v>-8.8635220799999997E-2</v>
       </c>
-      <c r="M23" s="91">
-        <f t="shared" si="8"/>
-        <v>-8.705244899999999E-2</v>
-      </c>
-      <c r="N23" s="91">
-        <f t="shared" si="8"/>
-        <v>-8.3095519499999992E-2</v>
-      </c>
-      <c r="O23" s="91">
-        <f t="shared" si="8"/>
-        <v>-8.3095519499999979E-2</v>
-      </c>
-      <c r="P23" s="91">
-        <f t="shared" si="8"/>
-        <v>-8.1671024879999998E-2</v>
-      </c>
-      <c r="Q23" s="91">
-        <f t="shared" si="8"/>
-        <v>-8.0721361799999988E-2</v>
-      </c>
-      <c r="R23" s="91">
-        <f t="shared" si="8"/>
-        <v>-7.9929975900000005E-2</v>
+      <c r="M23" s="85">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="N23" s="85">
+        <v>-8.5999999999999993E-2</v>
+      </c>
+      <c r="O23" s="85">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+      <c r="P23" s="85">
+        <v>-8.2500000000000004E-2</v>
+      </c>
+      <c r="Q23" s="85">
+        <v>-0.08</v>
+      </c>
+      <c r="R23" s="85">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2475,17 +2541,17 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="94"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="94"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -2516,105 +2582,105 @@
         <f>'Raw IS'!P19</f>
         <v>-11053</v>
       </c>
-      <c r="I25" s="76">
-        <v>-11454.604735559999</v>
-      </c>
-      <c r="J25" s="83">
-        <v>-12629.112856080001</v>
-      </c>
-      <c r="K25" s="83">
-        <v>-13221.682944715001</v>
-      </c>
-      <c r="L25" s="83">
-        <v>-13692.242153856001</v>
-      </c>
-      <c r="M25" s="83">
-        <v>-14338.678147639999</v>
-      </c>
-      <c r="N25" s="83">
-        <v>-14461.450195605001</v>
-      </c>
-      <c r="O25" s="83">
-        <v>-14843.93084286</v>
-      </c>
-      <c r="P25" s="83">
-        <v>-15177.488232866403</v>
-      </c>
-      <c r="Q25" s="83">
-        <v>-15775.892673492001</v>
-      </c>
-      <c r="R25" s="83">
-        <v>-16533.331679361003</v>
+      <c r="I25" s="74">
+        <f>I26*I11</f>
+        <v>-9898.2899999999991</v>
+      </c>
+      <c r="J25" s="94">
+        <f t="shared" ref="J25:R25" si="11">J26*J11</f>
+        <v>-10913.22</v>
+      </c>
+      <c r="K25" s="94">
+        <f t="shared" si="11"/>
+        <v>-11922.029999999999</v>
+      </c>
+      <c r="L25" s="94">
+        <f t="shared" si="11"/>
+        <v>-12677.039999999999</v>
+      </c>
+      <c r="M25" s="94">
+        <f t="shared" si="11"/>
+        <v>-13516.919999999998</v>
+      </c>
+      <c r="N25" s="94">
+        <f t="shared" si="11"/>
+        <v>-14461.450195605003</v>
+      </c>
+      <c r="O25" s="94">
+        <f t="shared" si="11"/>
+        <v>-13030.720000000001</v>
+      </c>
+      <c r="P25" s="94">
+        <f t="shared" si="11"/>
+        <v>-13555.920000000002</v>
+      </c>
+      <c r="Q25" s="94">
+        <f t="shared" si="11"/>
+        <v>-14256.160000000002</v>
+      </c>
+      <c r="R25" s="94">
+        <f t="shared" si="11"/>
+        <v>-15088.560000000001</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="89">
+      <c r="C26" s="83">
         <f>C25/C11</f>
         <v>-1.1632405808959266E-2</v>
       </c>
-      <c r="D26" s="89">
-        <f t="shared" ref="D26:R26" si="9">D25/D11</f>
+      <c r="D26" s="83">
+        <f t="shared" ref="D26:R26" si="12">D25/D11</f>
         <v>-1.1167630603434862E-2</v>
       </c>
-      <c r="E26" s="89">
-        <f t="shared" si="9"/>
+      <c r="E26" s="83">
+        <f t="shared" si="12"/>
         <v>-9.516846240251866E-3</v>
       </c>
-      <c r="F26" s="89">
-        <f t="shared" si="9"/>
+      <c r="F26" s="83">
+        <f t="shared" si="12"/>
         <v>-8.5934336459274705E-3</v>
       </c>
-      <c r="G26" s="89">
-        <f t="shared" si="9"/>
+      <c r="G26" s="83">
+        <f t="shared" si="12"/>
         <v>-1.2150165196849069E-2</v>
       </c>
-      <c r="H26" s="89">
-        <f t="shared" si="9"/>
+      <c r="H26" s="83">
+        <f t="shared" si="12"/>
         <v>-1.0564538020102539E-2</v>
       </c>
-      <c r="I26" s="90">
-        <f t="shared" si="9"/>
-        <v>-1.0415075999999999E-2</v>
-      </c>
-      <c r="J26" s="91">
-        <f t="shared" si="9"/>
-        <v>-1.0415076000000001E-2</v>
-      </c>
-      <c r="K26" s="91">
-        <f t="shared" si="9"/>
-        <v>-9.9811145000000007E-3</v>
-      </c>
-      <c r="L26" s="91">
-        <f t="shared" si="9"/>
-        <v>-9.7207376000000012E-3</v>
-      </c>
-      <c r="M26" s="91">
-        <f t="shared" si="9"/>
-        <v>-9.5471529999999992E-3</v>
-      </c>
-      <c r="N26" s="91">
-        <f t="shared" si="9"/>
+      <c r="I26" s="84">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="J26" s="85">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="K26" s="85">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="L26" s="85">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="M26" s="85">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="N26" s="85">
         <v>-9.1131915000000011E-3</v>
       </c>
-      <c r="O26" s="91">
-        <f t="shared" si="9"/>
-        <v>-9.1131914999999994E-3</v>
-      </c>
-      <c r="P26" s="91">
-        <f t="shared" si="9"/>
-        <v>-8.9569653600000011E-3</v>
-      </c>
-      <c r="Q26" s="91">
-        <f t="shared" si="9"/>
-        <v>-8.8528145999999999E-3</v>
-      </c>
-      <c r="R26" s="91">
-        <f t="shared" si="9"/>
-        <v>-8.7660223000000006E-3</v>
+      <c r="O26" s="85">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="P26" s="85">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="Q26" s="85">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="R26" s="85">
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -2625,17 +2691,17 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="94"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
@@ -2666,105 +2732,105 @@
         <f>SUM('Raw IS'!P20)</f>
         <v>1379</v>
       </c>
-      <c r="I28" s="79">
-        <v>1429.1019124799932</v>
-      </c>
-      <c r="J28" s="85">
-        <v>1575.6361526399851</v>
-      </c>
-      <c r="K28" s="85">
-        <v>1649.5665122199862</v>
-      </c>
-      <c r="L28" s="85">
-        <v>1708.2745236479968</v>
-      </c>
-      <c r="M28" s="85">
-        <v>1788.9253131199803</v>
-      </c>
-      <c r="N28" s="85">
-        <v>1804.242626339983</v>
-      </c>
-      <c r="O28" s="85">
-        <v>1851.9617608799599</v>
-      </c>
-      <c r="P28" s="85">
-        <v>1893.5771212512045</v>
-      </c>
-      <c r="Q28" s="85">
-        <v>1968.2353875359695</v>
-      </c>
-      <c r="R28" s="85">
-        <v>2062.7351591879851</v>
+      <c r="I28" s="77">
+        <f>I29*I11</f>
+        <v>1099.81</v>
+      </c>
+      <c r="J28" s="95">
+        <f t="shared" ref="J28:R28" si="13">J29*J11</f>
+        <v>1212.58</v>
+      </c>
+      <c r="K28" s="95">
+        <f t="shared" si="13"/>
+        <v>1722.0709999999999</v>
+      </c>
+      <c r="L28" s="95">
+        <f t="shared" si="13"/>
+        <v>1831.1279999999999</v>
+      </c>
+      <c r="M28" s="95">
+        <f t="shared" si="13"/>
+        <v>4505.6400000000003</v>
+      </c>
+      <c r="N28" s="95">
+        <f t="shared" si="13"/>
+        <v>4760.6099999999997</v>
+      </c>
+      <c r="O28" s="95">
+        <f t="shared" si="13"/>
+        <v>4886.5200000000004</v>
+      </c>
+      <c r="P28" s="95">
+        <f t="shared" si="13"/>
+        <v>5083.4700000000012</v>
+      </c>
+      <c r="Q28" s="95">
+        <f t="shared" si="13"/>
+        <v>3207.6360000000004</v>
+      </c>
+      <c r="R28" s="95">
+        <f t="shared" si="13"/>
+        <v>6412.6380000000008</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="89">
+      <c r="C29" s="83">
         <f>C28/C11</f>
         <v>0</v>
       </c>
-      <c r="D29" s="89">
-        <f t="shared" ref="D29:R29" si="10">D28/D11</f>
+      <c r="D29" s="83">
+        <f t="shared" ref="D29:R29" si="14">D28/D11</f>
         <v>-4.8303128957737929E-5</v>
       </c>
-      <c r="E29" s="89">
-        <f t="shared" si="10"/>
+      <c r="E29" s="83">
+        <f t="shared" si="14"/>
         <v>6.7338993717891574E-3</v>
       </c>
-      <c r="F29" s="89">
-        <f t="shared" si="10"/>
+      <c r="F29" s="83">
+        <f t="shared" si="14"/>
         <v>2.2110426091643625E-3</v>
       </c>
-      <c r="G29" s="89">
-        <f t="shared" si="10"/>
+      <c r="G29" s="83">
+        <f t="shared" si="14"/>
         <v>8.060177050668774E-4</v>
       </c>
-      <c r="H29" s="89">
-        <f t="shared" si="10"/>
+      <c r="H29" s="83">
+        <f t="shared" si="14"/>
         <v>1.3180582583661813E-3</v>
       </c>
-      <c r="I29" s="90">
-        <f t="shared" si="10"/>
-        <v>1.2994079999999939E-3</v>
-      </c>
-      <c r="J29" s="91">
-        <f t="shared" si="10"/>
-        <v>1.2994079999999878E-3</v>
-      </c>
-      <c r="K29" s="91">
-        <f t="shared" si="10"/>
-        <v>1.2452659999999897E-3</v>
-      </c>
-      <c r="L29" s="91">
-        <f t="shared" si="10"/>
-        <v>1.2127807999999978E-3</v>
-      </c>
-      <c r="M29" s="91">
-        <f t="shared" si="10"/>
-        <v>1.1911239999999868E-3</v>
-      </c>
-      <c r="N29" s="91">
-        <f t="shared" si="10"/>
-        <v>1.1369819999999893E-3</v>
-      </c>
-      <c r="O29" s="91">
-        <f t="shared" si="10"/>
-        <v>1.1369819999999754E-3</v>
-      </c>
-      <c r="P29" s="91">
-        <f t="shared" si="10"/>
-        <v>1.1174908800000026E-3</v>
-      </c>
-      <c r="Q29" s="91">
-        <f t="shared" si="10"/>
-        <v>1.1044967999999827E-3</v>
-      </c>
-      <c r="R29" s="91">
-        <f t="shared" si="10"/>
-        <v>1.093668399999992E-3</v>
+      <c r="I29" s="84">
+        <v>1E-3</v>
+      </c>
+      <c r="J29" s="85">
+        <v>1E-3</v>
+      </c>
+      <c r="K29" s="85">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="L29" s="85">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M29" s="85">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N29" s="85">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O29" s="85">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P29" s="85">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q29" s="85">
+        <v>1.8E-3</v>
+      </c>
+      <c r="R29" s="85">
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -2776,16 +2842,16 @@
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
@@ -2797,134 +2863,134 @@
         <v>-51650.398999999998</v>
       </c>
       <c r="D31" s="12">
-        <f t="shared" ref="D31:R31" si="11">D19+D22+D25+D28</f>
+        <f t="shared" ref="D31:R31" si="15">D19+D22+D25+D28</f>
         <v>-68572.763999999996</v>
       </c>
       <c r="E31" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-75426.213000000003</v>
       </c>
       <c r="F31" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-96765</v>
       </c>
       <c r="G31" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-124925</v>
       </c>
       <c r="H31" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-127350</v>
       </c>
-      <c r="I31" s="79">
-        <f t="shared" si="11"/>
-        <v>-131977.19999999998</v>
-      </c>
-      <c r="J31" s="85">
-        <f t="shared" si="11"/>
-        <v>-145509.6</v>
-      </c>
-      <c r="K31" s="85">
-        <f t="shared" si="11"/>
-        <v>-152337.05000000002</v>
-      </c>
-      <c r="L31" s="85">
-        <f t="shared" si="11"/>
-        <v>-157758.72</v>
-      </c>
-      <c r="M31" s="85">
-        <f t="shared" si="11"/>
-        <v>-165206.79999999999</v>
-      </c>
-      <c r="N31" s="85">
-        <f t="shared" si="11"/>
-        <v>-166621.35</v>
-      </c>
-      <c r="O31" s="85">
-        <f t="shared" si="11"/>
-        <v>-171028.19999999998</v>
-      </c>
-      <c r="P31" s="85">
-        <f t="shared" si="11"/>
-        <v>-174871.36800000002</v>
-      </c>
-      <c r="Q31" s="85">
-        <f t="shared" si="11"/>
-        <v>-181766.04</v>
-      </c>
-      <c r="R31" s="85">
-        <f t="shared" si="11"/>
-        <v>-190493.07000000004</v>
+      <c r="I31" s="77">
+        <f t="shared" si="15"/>
+        <v>-126478.15</v>
+      </c>
+      <c r="J31" s="95">
+        <f t="shared" si="15"/>
+        <v>-137385.31400000001</v>
+      </c>
+      <c r="K31" s="95">
+        <f t="shared" si="15"/>
+        <v>-149627.79914990999</v>
+      </c>
+      <c r="L31" s="95">
+        <f t="shared" si="15"/>
+        <v>-156620.66436979201</v>
+      </c>
+      <c r="M31" s="95">
+        <f t="shared" si="15"/>
+        <v>-162953.97999999998</v>
+      </c>
+      <c r="N31" s="95">
+        <f t="shared" si="15"/>
+        <v>-169181.27519560498</v>
+      </c>
+      <c r="O31" s="95">
+        <f t="shared" si="15"/>
+        <v>-169399.36000000004</v>
+      </c>
+      <c r="P31" s="95">
+        <f t="shared" si="15"/>
+        <v>-171990.73500000004</v>
+      </c>
+      <c r="Q31" s="95">
+        <f t="shared" si="15"/>
+        <v>-177721.42555920803</v>
+      </c>
+      <c r="R31" s="95">
+        <f t="shared" si="15"/>
+        <v>-185080.65339682801</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="89">
-        <f t="shared" ref="C32:H32" si="12">C31/C11</f>
+      <c r="C32" s="83">
+        <f t="shared" ref="C32:H32" si="16">C31/C11</f>
         <v>-0.14255002060901345</v>
       </c>
-      <c r="D32" s="89">
-        <f t="shared" si="12"/>
+      <c r="D32" s="83">
+        <f t="shared" si="16"/>
         <v>-0.14841954843753769</v>
       </c>
-      <c r="E32" s="89">
-        <f t="shared" si="12"/>
+      <c r="E32" s="83">
+        <f t="shared" si="16"/>
         <v>-0.13074660890613304</v>
       </c>
-      <c r="F32" s="89">
-        <f t="shared" si="12"/>
+      <c r="F32" s="83">
+        <f t="shared" si="16"/>
         <v>-0.12974623291436602</v>
       </c>
-      <c r="G32" s="89">
-        <f t="shared" si="12"/>
+      <c r="G32" s="83">
+        <f t="shared" si="16"/>
         <v>-0.13128000235395001</v>
       </c>
-      <c r="H32" s="89">
-        <f t="shared" si="12"/>
+      <c r="H32" s="83">
+        <f t="shared" si="16"/>
         <v>-0.12172205888537577</v>
       </c>
-      <c r="I32" s="90">
-        <f t="shared" ref="I32" si="13">I31/I11</f>
-        <v>-0.11999999999999998</v>
-      </c>
-      <c r="J32" s="91">
-        <f t="shared" ref="J32" si="14">J31/J11</f>
-        <v>-0.12000000000000001</v>
-      </c>
-      <c r="K32" s="91">
-        <f t="shared" ref="K32" si="15">K31/K11</f>
-        <v>-0.11500000000000002</v>
-      </c>
-      <c r="L32" s="91">
-        <f t="shared" ref="L32" si="16">L31/L11</f>
-        <v>-0.112</v>
-      </c>
-      <c r="M32" s="91">
-        <f t="shared" ref="M32" si="17">M31/M11</f>
-        <v>-0.10999999999999999</v>
-      </c>
-      <c r="N32" s="91">
-        <f t="shared" ref="N32" si="18">N31/N11</f>
-        <v>-0.10500000000000001</v>
-      </c>
-      <c r="O32" s="91">
-        <f t="shared" ref="O32" si="19">O31/O11</f>
-        <v>-0.105</v>
-      </c>
-      <c r="P32" s="91">
-        <f t="shared" ref="P32" si="20">P31/P11</f>
-        <v>-0.1032</v>
-      </c>
-      <c r="Q32" s="91">
-        <f t="shared" ref="Q32" si="21">Q31/Q11</f>
-        <v>-0.10199999999999999</v>
-      </c>
-      <c r="R32" s="91">
-        <f t="shared" ref="R32" si="22">R31/R11</f>
-        <v>-0.10100000000000001</v>
+      <c r="I32" s="84">
+        <f t="shared" ref="I32" si="17">I31/I11</f>
+        <v>-0.11499999999999999</v>
+      </c>
+      <c r="J32" s="85">
+        <f t="shared" ref="J32" si="18">J31/J11</f>
+        <v>-0.11330000000000001</v>
+      </c>
+      <c r="K32" s="85">
+        <f t="shared" ref="K32" si="19">K31/K11</f>
+        <v>-0.11295477299999999</v>
+      </c>
+      <c r="L32" s="85">
+        <f t="shared" ref="L32" si="20">L31/L11</f>
+        <v>-0.11119204320000001</v>
+      </c>
+      <c r="M32" s="85">
+        <f t="shared" ref="M32" si="21">M31/M11</f>
+        <v>-0.10849999999999999</v>
+      </c>
+      <c r="N32" s="85">
+        <f t="shared" ref="N32" si="22">N31/N11</f>
+        <v>-0.10661319149999998</v>
+      </c>
+      <c r="O32" s="85">
+        <f t="shared" ref="O32" si="23">O31/O11</f>
+        <v>-0.10400000000000002</v>
+      </c>
+      <c r="P32" s="85">
+        <f t="shared" ref="P32" si="24">P31/P11</f>
+        <v>-0.10150000000000001</v>
+      </c>
+      <c r="Q32" s="85">
+        <f t="shared" ref="Q32" si="25">Q31/Q11</f>
+        <v>-9.9730320400000003E-2</v>
+      </c>
+      <c r="R32" s="85">
+        <f t="shared" ref="R32" si="26">R31/R11</f>
+        <v>-9.8130320399999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:86" x14ac:dyDescent="0.25">
@@ -2937,15 +3003,15 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
       <c r="I33" s="71"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
     </row>
     <row r="34" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -2957,64 +3023,64 @@
         <v>-835.47599999998783</v>
       </c>
       <c r="D34" s="12">
-        <f t="shared" ref="D34:H34" si="23">D16+D31</f>
+        <f t="shared" ref="D34:H34" si="27">D16+D31</f>
         <v>-2619.1309999999648</v>
       </c>
       <c r="E34" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>8994.8800000000483</v>
       </c>
       <c r="F34" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>12343</v>
       </c>
       <c r="G34" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>4141</v>
       </c>
       <c r="H34" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>19723</v>
       </c>
-      <c r="I34" s="79">
+      <c r="I34" s="77">
         <f>I16+I31</f>
-        <v>29144.964999999997</v>
-      </c>
-      <c r="J34" s="85">
-        <f t="shared" ref="J34:R34" si="24">J16+J31</f>
-        <v>33224.69200000001</v>
-      </c>
-      <c r="K34" s="85">
-        <f t="shared" si="24"/>
-        <v>47025.784999999974</v>
-      </c>
-      <c r="L34" s="85">
-        <f t="shared" si="24"/>
-        <v>52116.72</v>
-      </c>
-      <c r="M34" s="85">
-        <f t="shared" si="24"/>
-        <v>61577.080000000016</v>
-      </c>
-      <c r="N34" s="85">
-        <f t="shared" si="24"/>
-        <v>76169.75999999998</v>
-      </c>
-      <c r="O34" s="85">
-        <f t="shared" si="24"/>
-        <v>81442.000000000029</v>
-      </c>
-      <c r="P34" s="85">
-        <f t="shared" si="24"/>
-        <v>91163.562000000034</v>
-      </c>
-      <c r="Q34" s="85">
-        <f t="shared" si="24"/>
-        <v>101575.14000000004</v>
-      </c>
-      <c r="R34" s="85">
-        <f t="shared" si="24"/>
-        <v>113164.19999999998</v>
+        <v>34644.014999999985</v>
+      </c>
+      <c r="J34" s="95">
+        <f t="shared" ref="J34:R34" si="28">J16+J31</f>
+        <v>41348.978000000003</v>
+      </c>
+      <c r="K34" s="95">
+        <f t="shared" si="28"/>
+        <v>49735.035850090004</v>
+      </c>
+      <c r="L34" s="95">
+        <f t="shared" si="28"/>
+        <v>53254.775630207994</v>
+      </c>
+      <c r="M34" s="95">
+        <f t="shared" si="28"/>
+        <v>63829.900000000023</v>
+      </c>
+      <c r="N34" s="95">
+        <f t="shared" si="28"/>
+        <v>73609.83480439501</v>
+      </c>
+      <c r="O34" s="95">
+        <f t="shared" si="28"/>
+        <v>83070.839999999967</v>
+      </c>
+      <c r="P34" s="95">
+        <f t="shared" si="28"/>
+        <v>94044.195000000007</v>
+      </c>
+      <c r="Q34" s="95">
+        <f t="shared" si="28"/>
+        <v>105619.75444079202</v>
+      </c>
+      <c r="R34" s="95">
+        <f t="shared" si="28"/>
+        <v>118576.61660317201</v>
       </c>
     </row>
     <row r="35" spans="1:86" x14ac:dyDescent="0.25">
@@ -3046,105 +3112,105 @@
         <f>SUM('Raw IS'!P25:P28)</f>
         <v>-5856</v>
       </c>
-      <c r="I35" s="76">
+      <c r="I35" s="74">
         <f>I36*I11</f>
-        <v>17596.96</v>
-      </c>
-      <c r="J35" s="83">
-        <f t="shared" ref="J35:R35" si="25">J36*J11</f>
-        <v>22432.73</v>
-      </c>
-      <c r="K35" s="83">
-        <f t="shared" si="25"/>
-        <v>19870.05</v>
-      </c>
-      <c r="L35" s="83">
-        <f t="shared" si="25"/>
-        <v>21128.399999999998</v>
-      </c>
-      <c r="M35" s="83">
-        <f t="shared" si="25"/>
-        <v>21026.32</v>
-      </c>
-      <c r="N35" s="83">
-        <f t="shared" si="25"/>
-        <v>23009.615000000002</v>
-      </c>
-      <c r="O35" s="83">
-        <f t="shared" si="25"/>
-        <v>26061.440000000002</v>
-      </c>
-      <c r="P35" s="83">
-        <f t="shared" si="25"/>
-        <v>27111.840000000004</v>
-      </c>
-      <c r="Q35" s="83">
-        <f t="shared" si="25"/>
-        <v>28512.320000000003</v>
-      </c>
-      <c r="R35" s="83">
-        <f t="shared" si="25"/>
-        <v>30177.120000000003</v>
+        <v>-5499.05</v>
+      </c>
+      <c r="J35" s="94">
+        <f t="shared" ref="J35:R35" si="29">J36*J11</f>
+        <v>-6062.9000000000005</v>
+      </c>
+      <c r="K35" s="94">
+        <f t="shared" si="29"/>
+        <v>-6623.35</v>
+      </c>
+      <c r="L35" s="94">
+        <f t="shared" si="29"/>
+        <v>-7042.8</v>
+      </c>
+      <c r="M35" s="94">
+        <f t="shared" si="29"/>
+        <v>-7509.4000000000005</v>
+      </c>
+      <c r="N35" s="94">
+        <f t="shared" si="29"/>
+        <v>-7934.35</v>
+      </c>
+      <c r="O35" s="94">
+        <f t="shared" si="29"/>
+        <v>-8144.2</v>
+      </c>
+      <c r="P35" s="94">
+        <f t="shared" si="29"/>
+        <v>-8472.4500000000007</v>
+      </c>
+      <c r="Q35" s="94">
+        <f t="shared" si="29"/>
+        <v>-8910.1000000000022</v>
+      </c>
+      <c r="R35" s="94">
+        <f t="shared" si="29"/>
+        <v>-9430.3500000000022</v>
       </c>
     </row>
     <row r="36" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="89">
+      <c r="C36" s="83">
         <f>C35/C11</f>
         <v>2.6396692794416247E-3</v>
       </c>
-      <c r="D36" s="89">
-        <f t="shared" ref="D36:H36" si="26">D35/D11</f>
+      <c r="D36" s="83">
+        <f t="shared" ref="D36:H36" si="30">D35/D11</f>
         <v>5.3126082860884742E-4</v>
       </c>
-      <c r="E36" s="89">
-        <f t="shared" si="26"/>
+      <c r="E36" s="83">
+        <f t="shared" si="30"/>
         <v>8.1430850680666387E-3</v>
       </c>
-      <c r="F36" s="89">
-        <f t="shared" si="26"/>
+      <c r="F36" s="83">
+        <f t="shared" si="30"/>
         <v>5.1590100321533064E-2</v>
       </c>
-      <c r="G36" s="89">
-        <f t="shared" si="26"/>
+      <c r="G36" s="83">
+        <f t="shared" si="30"/>
         <v>-7.0629009071114515E-3</v>
       </c>
-      <c r="H36" s="89">
-        <f t="shared" si="26"/>
+      <c r="H36" s="83">
+        <f t="shared" si="30"/>
         <v>-5.5972075134099767E-3</v>
       </c>
-      <c r="I36" s="90">
-        <v>1.6E-2</v>
-      </c>
-      <c r="J36" s="91">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="K36" s="91">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="L36" s="91">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M36" s="91">
-        <v>1.4E-2</v>
-      </c>
-      <c r="N36" s="91">
-        <v>1.4500000000000001E-2</v>
-      </c>
-      <c r="O36" s="91">
-        <v>1.6E-2</v>
-      </c>
-      <c r="P36" s="91">
-        <v>1.6E-2</v>
-      </c>
-      <c r="Q36" s="91">
-        <v>1.6E-2</v>
-      </c>
-      <c r="R36" s="91">
-        <v>1.6E-2</v>
+      <c r="I36" s="84">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="J36" s="85">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="K36" s="85">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="L36" s="85">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="M36" s="85">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="N36" s="85">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="O36" s="85">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="P36" s="85">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="Q36" s="85">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="R36" s="85">
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="37" spans="1:86" x14ac:dyDescent="0.25">
@@ -3156,16 +3222,16 @@
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="84"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="84"/>
-      <c r="Q37" s="84"/>
-      <c r="R37" s="84"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="96"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="96"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="96"/>
     </row>
     <row r="38" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -3177,64 +3243,64 @@
         <v>120.9600000000122</v>
       </c>
       <c r="D38" s="12">
-        <f t="shared" ref="D38:R38" si="27">D34+D35</f>
+        <f t="shared" ref="D38:R38" si="31">D34+D35</f>
         <v>-2373.6779999999649</v>
       </c>
       <c r="E38" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>13692.532000000048</v>
       </c>
       <c r="F38" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>50819</v>
       </c>
       <c r="G38" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>-2580</v>
       </c>
       <c r="H38" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>13867</v>
       </c>
-      <c r="I38" s="79">
+      <c r="I38" s="77">
         <f>I34+I35</f>
-        <v>46741.924999999996</v>
-      </c>
-      <c r="J38" s="85">
-        <f t="shared" si="27"/>
-        <v>55657.422000000006</v>
-      </c>
-      <c r="K38" s="85">
-        <f t="shared" si="27"/>
-        <v>66895.834999999977</v>
-      </c>
-      <c r="L38" s="85">
-        <f t="shared" si="27"/>
-        <v>73245.119999999995</v>
-      </c>
-      <c r="M38" s="85">
-        <f t="shared" si="27"/>
-        <v>82603.400000000023</v>
-      </c>
-      <c r="N38" s="85">
-        <f t="shared" si="27"/>
-        <v>99179.374999999985</v>
-      </c>
-      <c r="O38" s="85">
-        <f t="shared" si="27"/>
-        <v>107503.44000000003</v>
-      </c>
-      <c r="P38" s="85">
-        <f t="shared" si="27"/>
-        <v>118275.40200000003</v>
-      </c>
-      <c r="Q38" s="85">
-        <f t="shared" si="27"/>
-        <v>130087.46000000005</v>
-      </c>
-      <c r="R38" s="85">
-        <f t="shared" si="27"/>
-        <v>143341.31999999998</v>
+        <v>29144.964999999986</v>
+      </c>
+      <c r="J38" s="95">
+        <f t="shared" si="31"/>
+        <v>35286.078000000001</v>
+      </c>
+      <c r="K38" s="95">
+        <f t="shared" si="31"/>
+        <v>43111.685850090005</v>
+      </c>
+      <c r="L38" s="95">
+        <f t="shared" si="31"/>
+        <v>46211.975630207991</v>
+      </c>
+      <c r="M38" s="95">
+        <f t="shared" si="31"/>
+        <v>56320.500000000022</v>
+      </c>
+      <c r="N38" s="95">
+        <f t="shared" si="31"/>
+        <v>65675.484804395004</v>
+      </c>
+      <c r="O38" s="95">
+        <f t="shared" si="31"/>
+        <v>74926.63999999997</v>
+      </c>
+      <c r="P38" s="95">
+        <f t="shared" si="31"/>
+        <v>85571.74500000001</v>
+      </c>
+      <c r="Q38" s="95">
+        <f t="shared" si="31"/>
+        <v>96709.654440792016</v>
+      </c>
+      <c r="R38" s="95">
+        <f t="shared" si="31"/>
+        <v>109146.266603172</v>
       </c>
     </row>
     <row r="39" spans="1:86" x14ac:dyDescent="0.25">
@@ -3246,16 +3312,16 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="84"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
-      <c r="Q39" s="84"/>
-      <c r="R39" s="84"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
     </row>
     <row r="40" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -3267,134 +3333,134 @@
         <v>-835.47599999998783</v>
       </c>
       <c r="D40" s="12">
-        <f t="shared" ref="D40:G40" si="28">D34</f>
+        <f t="shared" ref="D40:G40" si="32">D34</f>
         <v>-2619.1309999999648</v>
       </c>
       <c r="E40" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>8994.8800000000483</v>
       </c>
       <c r="F40" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>12343</v>
       </c>
       <c r="G40" s="12">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>4141</v>
       </c>
       <c r="H40" s="12">
         <f>H34</f>
         <v>19723</v>
       </c>
-      <c r="I40" s="79">
-        <f t="shared" ref="I40:R40" si="29">I34</f>
-        <v>29144.964999999997</v>
-      </c>
-      <c r="J40" s="85">
-        <f t="shared" si="29"/>
-        <v>33224.69200000001</v>
-      </c>
-      <c r="K40" s="85">
-        <f t="shared" si="29"/>
-        <v>47025.784999999974</v>
-      </c>
-      <c r="L40" s="85">
-        <f t="shared" si="29"/>
-        <v>52116.72</v>
-      </c>
-      <c r="M40" s="85">
-        <f t="shared" si="29"/>
-        <v>61577.080000000016</v>
-      </c>
-      <c r="N40" s="85">
-        <f t="shared" si="29"/>
-        <v>76169.75999999998</v>
-      </c>
-      <c r="O40" s="85">
-        <f t="shared" si="29"/>
-        <v>81442.000000000029</v>
-      </c>
-      <c r="P40" s="85">
-        <f t="shared" si="29"/>
-        <v>91163.562000000034</v>
-      </c>
-      <c r="Q40" s="85">
-        <f t="shared" si="29"/>
-        <v>101575.14000000004</v>
-      </c>
-      <c r="R40" s="85">
-        <f t="shared" si="29"/>
-        <v>113164.19999999998</v>
+      <c r="I40" s="77">
+        <f t="shared" ref="I40:R40" si="33">I34</f>
+        <v>34644.014999999985</v>
+      </c>
+      <c r="J40" s="95">
+        <f t="shared" si="33"/>
+        <v>41348.978000000003</v>
+      </c>
+      <c r="K40" s="95">
+        <f t="shared" si="33"/>
+        <v>49735.035850090004</v>
+      </c>
+      <c r="L40" s="95">
+        <f t="shared" si="33"/>
+        <v>53254.775630207994</v>
+      </c>
+      <c r="M40" s="95">
+        <f t="shared" si="33"/>
+        <v>63829.900000000023</v>
+      </c>
+      <c r="N40" s="95">
+        <f t="shared" si="33"/>
+        <v>73609.83480439501</v>
+      </c>
+      <c r="O40" s="95">
+        <f t="shared" si="33"/>
+        <v>83070.839999999967</v>
+      </c>
+      <c r="P40" s="95">
+        <f t="shared" si="33"/>
+        <v>94044.195000000007</v>
+      </c>
+      <c r="Q40" s="95">
+        <f t="shared" si="33"/>
+        <v>105619.75444079202</v>
+      </c>
+      <c r="R40" s="95">
+        <f t="shared" si="33"/>
+        <v>118576.61660317201</v>
       </c>
     </row>
     <row r="41" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="89">
-        <f t="shared" ref="C41:H41" si="30">C40/C11</f>
+      <c r="C41" s="83">
+        <f t="shared" ref="C41:H41" si="34">C40/C11</f>
         <v>-2.3058315777644699E-3</v>
       </c>
-      <c r="D41" s="89">
-        <f t="shared" si="30"/>
+      <c r="D41" s="83">
+        <f t="shared" si="34"/>
         <v>-5.6688722700276653E-3</v>
       </c>
-      <c r="E41" s="89">
-        <f t="shared" si="30"/>
+      <c r="E41" s="83">
+        <f t="shared" si="34"/>
         <v>1.5592060249897531E-2</v>
       </c>
-      <c r="F41" s="89">
-        <f t="shared" si="30"/>
+      <c r="F41" s="83">
+        <f t="shared" si="34"/>
         <v>1.6549969026631733E-2</v>
       </c>
-      <c r="G41" s="89">
-        <f t="shared" si="30"/>
+      <c r="G41" s="83">
+        <f t="shared" si="34"/>
         <v>4.351654910928213E-3</v>
       </c>
-      <c r="H41" s="89">
-        <f t="shared" si="30"/>
+      <c r="H41" s="83">
+        <f t="shared" si="34"/>
         <v>1.8851387258706449E-2</v>
       </c>
-      <c r="I41" s="90">
-        <f t="shared" ref="I41:R41" si="31">I40/I11</f>
-        <v>2.6499999999999996E-2</v>
-      </c>
-      <c r="J41" s="91">
-        <f t="shared" si="31"/>
-        <v>2.7400000000000008E-2</v>
-      </c>
-      <c r="K41" s="91">
-        <f t="shared" si="31"/>
-        <v>3.5499999999999983E-2</v>
-      </c>
-      <c r="L41" s="91">
-        <f t="shared" si="31"/>
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="M41" s="91">
-        <f t="shared" si="31"/>
-        <v>4.1000000000000009E-2</v>
-      </c>
-      <c r="N41" s="91">
-        <f t="shared" si="31"/>
-        <v>4.7999999999999987E-2</v>
-      </c>
-      <c r="O41" s="91">
-        <f t="shared" si="31"/>
-        <v>5.0000000000000017E-2</v>
-      </c>
-      <c r="P41" s="91">
-        <f t="shared" si="31"/>
-        <v>5.3800000000000014E-2</v>
-      </c>
-      <c r="Q41" s="91">
-        <f t="shared" si="31"/>
-        <v>5.7000000000000016E-2</v>
-      </c>
-      <c r="R41" s="91">
-        <f t="shared" si="31"/>
-        <v>5.9999999999999984E-2</v>
+      <c r="I41" s="84">
+        <f t="shared" ref="I41:R41" si="35">I40/I11</f>
+        <v>3.1499999999999986E-2</v>
+      </c>
+      <c r="J41" s="85">
+        <f t="shared" si="35"/>
+        <v>3.4100000000000005E-2</v>
+      </c>
+      <c r="K41" s="85">
+        <f t="shared" si="35"/>
+        <v>3.7545227E-2</v>
+      </c>
+      <c r="L41" s="85">
+        <f t="shared" si="35"/>
+        <v>3.7807956799999994E-2</v>
+      </c>
+      <c r="M41" s="85">
+        <f t="shared" si="35"/>
+        <v>4.2500000000000017E-2</v>
+      </c>
+      <c r="N41" s="85">
+        <f t="shared" si="35"/>
+        <v>4.6386808500000008E-2</v>
+      </c>
+      <c r="O41" s="85">
+        <f t="shared" si="35"/>
+        <v>5.0999999999999983E-2</v>
+      </c>
+      <c r="P41" s="85">
+        <f t="shared" si="35"/>
+        <v>5.5499999999999994E-2</v>
+      </c>
+      <c r="Q41" s="85">
+        <f t="shared" si="35"/>
+        <v>5.9269679600000007E-2</v>
+      </c>
+      <c r="R41" s="85">
+        <f t="shared" si="35"/>
+        <v>6.2869679599999992E-2</v>
       </c>
     </row>
     <row r="42" spans="1:86" x14ac:dyDescent="0.25">
@@ -3405,16 +3471,16 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
     </row>
     <row r="43" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
@@ -3445,104 +3511,104 @@
         <f>'Raw IS'!P30</f>
         <v>-4176</v>
       </c>
-      <c r="I43" s="76">
+      <c r="I43" s="74">
         <f>I44*I40</f>
-        <v>-5240.2647069999994</v>
-      </c>
-      <c r="J43" s="83">
-        <f t="shared" ref="J43:R43" si="32">J44*J40</f>
-        <v>-5937.2524604000018</v>
-      </c>
-      <c r="K43" s="83">
-        <f t="shared" si="32"/>
-        <v>-8474.0464569999949</v>
-      </c>
-      <c r="L43" s="83">
-        <f t="shared" si="32"/>
-        <v>-7817.5079999999998</v>
-      </c>
-      <c r="M43" s="83">
-        <f t="shared" si="32"/>
-        <v>-9236.5620000000017</v>
-      </c>
-      <c r="N43" s="83">
-        <f t="shared" si="32"/>
-        <v>-11425.463999999996</v>
-      </c>
-      <c r="O43" s="83">
-        <f t="shared" si="32"/>
-        <v>-12216.300000000005</v>
-      </c>
-      <c r="P43" s="83">
-        <f t="shared" si="32"/>
-        <v>-13674.534300000005</v>
-      </c>
-      <c r="Q43" s="83">
-        <f t="shared" si="32"/>
-        <v>-15236.271000000006</v>
-      </c>
-      <c r="R43" s="83">
-        <f t="shared" si="32"/>
-        <v>-16974.629999999997</v>
+        <v>-6228.9938969999967</v>
+      </c>
+      <c r="J43" s="94">
+        <f t="shared" ref="J43:R43" si="36">J44*J40</f>
+        <v>-7389.0623686000008</v>
+      </c>
+      <c r="K43" s="94">
+        <f t="shared" si="36"/>
+        <v>-8962.2534601862189</v>
+      </c>
+      <c r="L43" s="94">
+        <f t="shared" si="36"/>
+        <v>-7988.216344531199</v>
+      </c>
+      <c r="M43" s="94">
+        <f t="shared" si="36"/>
+        <v>-9574.4850000000024</v>
+      </c>
+      <c r="N43" s="94">
+        <f t="shared" si="36"/>
+        <v>-11041.475220659251</v>
+      </c>
+      <c r="O43" s="94">
+        <f t="shared" si="36"/>
+        <v>-12460.625999999995</v>
+      </c>
+      <c r="P43" s="94">
+        <f t="shared" si="36"/>
+        <v>-14106.62925</v>
+      </c>
+      <c r="Q43" s="94">
+        <f t="shared" si="36"/>
+        <v>-15842.963166118803</v>
+      </c>
+      <c r="R43" s="94">
+        <f t="shared" si="36"/>
+        <v>-17786.492490475801</v>
       </c>
     </row>
     <row r="44" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="88" t="s">
+      <c r="B44" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="94">
+      <c r="C44" s="88">
         <f>C43/C40</f>
         <v>0.16708199876477842</v>
       </c>
-      <c r="D44" s="94">
-        <f t="shared" ref="D44:F44" si="33">D43/D40</f>
+      <c r="D44" s="88">
+        <f t="shared" ref="D44:F44" si="37">D43/D40</f>
         <v>0.16298230214525572</v>
       </c>
-      <c r="E44" s="94">
-        <f t="shared" si="33"/>
+      <c r="E44" s="88">
+        <f t="shared" si="37"/>
         <v>-0.20038510797253442</v>
       </c>
-      <c r="F44" s="94">
-        <f t="shared" si="33"/>
+      <c r="F44" s="88">
+        <f t="shared" si="37"/>
         <v>-0.12006805476788462</v>
       </c>
-      <c r="G44" s="94">
+      <c r="G44" s="88">
         <f>F43/G40</f>
         <v>-0.35788456894469933</v>
       </c>
-      <c r="H44" s="94">
+      <c r="H44" s="88">
         <f>G43/H40</f>
         <v>-9.5675100136896007E-2</v>
       </c>
-      <c r="I44" s="95">
+      <c r="I44" s="89">
         <v>-0.17979999999999999</v>
       </c>
-      <c r="J44" s="96">
+      <c r="J44" s="97">
         <v>-0.1787</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="97">
         <v>-0.1802</v>
       </c>
-      <c r="L44" s="96">
+      <c r="L44" s="97">
         <v>-0.15</v>
       </c>
-      <c r="M44" s="96">
+      <c r="M44" s="97">
         <v>-0.15</v>
       </c>
-      <c r="N44" s="96">
+      <c r="N44" s="97">
         <v>-0.15</v>
       </c>
-      <c r="O44" s="96">
+      <c r="O44" s="97">
         <v>-0.15</v>
       </c>
-      <c r="P44" s="96">
+      <c r="P44" s="97">
         <v>-0.15</v>
       </c>
-      <c r="Q44" s="96">
+      <c r="Q44" s="97">
         <v>-0.15</v>
       </c>
-      <c r="R44" s="96">
+      <c r="R44" s="97">
         <v>-0.15</v>
       </c>
     </row>
@@ -3555,16 +3621,16 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
+      <c r="I45" s="75"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="96"/>
+      <c r="P45" s="96"/>
+      <c r="Q45" s="96"/>
+      <c r="R45" s="96"/>
     </row>
     <row r="46" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -3591,34 +3657,34 @@
       <c r="H46" s="10">
         <v>2022</v>
       </c>
-      <c r="I46" s="81">
+      <c r="I46" s="79">
         <v>2023</v>
       </c>
-      <c r="J46" s="86">
+      <c r="J46" s="98">
         <v>2024</v>
       </c>
-      <c r="K46" s="86">
+      <c r="K46" s="98">
         <v>2025</v>
       </c>
-      <c r="L46" s="86">
+      <c r="L46" s="98">
         <v>2026</v>
       </c>
-      <c r="M46" s="86">
+      <c r="M46" s="98">
         <v>2027</v>
       </c>
-      <c r="N46" s="86">
+      <c r="N46" s="98">
         <v>2028</v>
       </c>
-      <c r="O46" s="86">
+      <c r="O46" s="98">
         <v>2029</v>
       </c>
-      <c r="P46" s="86">
+      <c r="P46" s="98">
         <v>2030</v>
       </c>
-      <c r="Q46" s="86">
+      <c r="Q46" s="98">
         <v>2031</v>
       </c>
-      <c r="R46" s="86">
+      <c r="R46" s="98">
         <v>2032</v>
       </c>
       <c r="S46" s="10">
@@ -3849,105 +3915,105 @@
       <c r="H47" s="12">
         <v>7236</v>
       </c>
-      <c r="I47" s="76">
+      <c r="I47" s="74">
         <f>I48*I11</f>
-        <v>8840</v>
-      </c>
-      <c r="J47" s="83">
-        <f t="shared" ref="J47:R47" si="34">J48*J11</f>
-        <v>10030</v>
-      </c>
-      <c r="K47" s="83">
-        <f t="shared" si="34"/>
-        <v>10640</v>
-      </c>
-      <c r="L47" s="83">
-        <f t="shared" si="34"/>
-        <v>12350</v>
-      </c>
-      <c r="M47" s="83">
-        <f t="shared" si="34"/>
-        <v>12920</v>
-      </c>
-      <c r="N47" s="83">
-        <f t="shared" si="34"/>
-        <v>13470</v>
-      </c>
-      <c r="O47" s="83">
-        <f t="shared" si="34"/>
-        <v>13989.999999999998</v>
-      </c>
-      <c r="P47" s="83">
-        <f t="shared" si="34"/>
-        <v>14470</v>
-      </c>
-      <c r="Q47" s="83">
-        <f t="shared" si="34"/>
-        <v>17180</v>
-      </c>
-      <c r="R47" s="83">
-        <f t="shared" si="34"/>
-        <v>17700</v>
+        <v>8760</v>
+      </c>
+      <c r="J47" s="94">
+        <f t="shared" ref="J47:R47" si="38">J48*J11</f>
+        <v>9480</v>
+      </c>
+      <c r="K47" s="94">
+        <f t="shared" si="38"/>
+        <v>10250</v>
+      </c>
+      <c r="L47" s="94">
+        <f t="shared" si="38"/>
+        <v>12840</v>
+      </c>
+      <c r="M47" s="94">
+        <f t="shared" si="38"/>
+        <v>13479.999999999998</v>
+      </c>
+      <c r="N47" s="94">
+        <f t="shared" si="38"/>
+        <v>14130</v>
+      </c>
+      <c r="O47" s="94">
+        <f t="shared" si="38"/>
+        <v>14780</v>
+      </c>
+      <c r="P47" s="94">
+        <f t="shared" si="38"/>
+        <v>15419.999999999998</v>
+      </c>
+      <c r="Q47" s="94">
+        <f t="shared" si="38"/>
+        <v>17750</v>
+      </c>
+      <c r="R47" s="94">
+        <f t="shared" si="38"/>
+        <v>18530</v>
       </c>
     </row>
     <row r="48" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="89">
-        <f t="shared" ref="C48:H48" si="35">C47/C11</f>
+      <c r="C48" s="83">
+        <f t="shared" ref="C48:R48" si="39">C47/C11</f>
         <v>1.1571483740285153E-2</v>
       </c>
-      <c r="D48" s="89">
-        <f t="shared" si="35"/>
+      <c r="D48" s="83">
+        <f t="shared" si="39"/>
         <v>1.2034190944634468E-2</v>
       </c>
-      <c r="E48" s="89">
-        <f t="shared" si="35"/>
+      <c r="E48" s="83">
+        <f t="shared" si="39"/>
         <v>1.0102567760739006E-2</v>
       </c>
-      <c r="F48" s="89">
-        <f t="shared" si="35"/>
+      <c r="F48" s="83">
+        <f t="shared" si="39"/>
         <v>8.1362077334198625E-3</v>
       </c>
-      <c r="G48" s="89">
-        <f t="shared" si="35"/>
+      <c r="G48" s="83">
+        <f t="shared" si="39"/>
         <v>6.5490252124860236E-3</v>
       </c>
-      <c r="H48" s="89">
-        <f t="shared" si="35"/>
+      <c r="H48" s="83">
+        <f t="shared" si="39"/>
         <v>6.9162215790701141E-3</v>
       </c>
-      <c r="I48" s="90">
-        <v>8.0377519753411959E-3</v>
-      </c>
-      <c r="J48" s="91">
-        <v>8.2716191921357769E-3</v>
-      </c>
-      <c r="K48" s="91">
-        <v>8.0321891489955992E-3</v>
-      </c>
-      <c r="L48" s="91">
-        <v>8.7678196171977058E-3</v>
-      </c>
-      <c r="M48" s="91">
-        <v>8.6025514688257386E-3</v>
-      </c>
-      <c r="N48" s="91">
-        <v>8.4884079981346929E-3</v>
-      </c>
-      <c r="O48" s="91">
-        <v>8.5889344564229753E-3</v>
-      </c>
-      <c r="P48" s="91">
-        <v>8.5394425461348244E-3</v>
-      </c>
-      <c r="Q48" s="91">
-        <v>9.6407447727859391E-3</v>
-      </c>
-      <c r="R48" s="91">
-        <v>9.3845933607978483E-3</v>
+      <c r="I48" s="101">
+        <v>7.9650121384602802E-3</v>
+      </c>
+      <c r="J48" s="99">
+        <v>7.8180408715301259E-3</v>
+      </c>
+      <c r="K48" s="99">
+        <v>7.7377762008651214E-3</v>
+      </c>
+      <c r="L48" s="99">
+        <v>9.1156926222525133E-3</v>
+      </c>
+      <c r="M48" s="99">
+        <v>8.9754174767624571E-3</v>
+      </c>
+      <c r="N48" s="99">
+        <v>8.9043210849029854E-3</v>
+      </c>
+      <c r="O48" s="99">
+        <v>9.0739421919893912E-3</v>
+      </c>
+      <c r="P48" s="99">
+        <v>9.1000832108776072E-3</v>
+      </c>
+      <c r="Q48" s="99">
+        <v>9.9606065027328522E-3</v>
+      </c>
+      <c r="R48" s="99">
+        <v>9.8246618630273511E-3</v>
       </c>
     </row>
     <row r="49" spans="1:86" x14ac:dyDescent="0.25">
@@ -3958,16 +4024,16 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="84"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="96"/>
+      <c r="L49" s="96"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="96"/>
+      <c r="P49" s="96"/>
+      <c r="Q49" s="96"/>
+      <c r="R49" s="96"/>
     </row>
     <row r="50" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -3992,104 +4058,104 @@
       <c r="H50" s="12">
         <v>-5495</v>
       </c>
-      <c r="I50" s="76">
+      <c r="I50" s="74">
         <f>I51*I11</f>
         <v>-18340</v>
       </c>
-      <c r="J50" s="83">
-        <f t="shared" ref="J50:R50" si="36">J51*J11</f>
+      <c r="J50" s="94">
+        <f t="shared" ref="J50:R50" si="40">J51*J11</f>
         <v>-20500.000000000004</v>
       </c>
-      <c r="K50" s="83">
-        <f t="shared" si="36"/>
+      <c r="K50" s="94">
+        <f t="shared" si="40"/>
         <v>-21010</v>
       </c>
-      <c r="L50" s="83">
-        <f t="shared" si="36"/>
+      <c r="L50" s="94">
+        <f t="shared" si="40"/>
         <v>-24760.000000000004</v>
       </c>
-      <c r="M50" s="83">
-        <f t="shared" si="36"/>
+      <c r="M50" s="94">
+        <f t="shared" si="40"/>
         <v>-26529.999999999996</v>
       </c>
-      <c r="N50" s="83">
-        <f t="shared" si="36"/>
+      <c r="N50" s="94">
+        <f t="shared" si="40"/>
         <v>-28200</v>
       </c>
-      <c r="O50" s="83">
-        <f t="shared" si="36"/>
+      <c r="O50" s="94">
+        <f t="shared" si="40"/>
         <v>-26920</v>
       </c>
-      <c r="P50" s="83">
-        <f t="shared" si="36"/>
+      <c r="P50" s="94">
+        <f t="shared" si="40"/>
         <v>-28199.999999999996</v>
       </c>
-      <c r="Q50" s="83">
-        <f t="shared" si="36"/>
+      <c r="Q50" s="94">
+        <f t="shared" si="40"/>
         <v>-23510</v>
       </c>
-      <c r="R50" s="83">
-        <f t="shared" si="36"/>
+      <c r="R50" s="94">
+        <f t="shared" si="40"/>
         <v>-24880</v>
       </c>
     </row>
     <row r="51" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="88" t="s">
+      <c r="B51" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="89">
-        <f t="shared" ref="C51:H51" si="37">C50/C11</f>
+      <c r="C51" s="83">
+        <f t="shared" ref="C51:H51" si="41">C50/C11</f>
         <v>-9.0919053150389905E-3</v>
       </c>
-      <c r="D51" s="89">
-        <f t="shared" si="37"/>
+      <c r="D51" s="83">
+        <f t="shared" si="41"/>
         <v>-2.108882317303663E-2</v>
       </c>
-      <c r="E51" s="89">
-        <f t="shared" si="37"/>
+      <c r="E51" s="83">
+        <f t="shared" si="41"/>
         <v>-4.5018562027665642E-3</v>
       </c>
-      <c r="F51" s="89">
-        <f t="shared" si="37"/>
+      <c r="F51" s="83">
+        <f t="shared" si="41"/>
         <v>-4.5186255869520331E-3</v>
       </c>
-      <c r="G51" s="89">
-        <f t="shared" si="37"/>
+      <c r="G51" s="83">
+        <f t="shared" si="41"/>
         <v>-5.8449419499113069E-3</v>
       </c>
-      <c r="H51" s="89">
-        <f t="shared" si="37"/>
+      <c r="H51" s="83">
+        <f t="shared" si="41"/>
         <v>-5.2521610802916362E-3</v>
       </c>
-      <c r="I51" s="90">
+      <c r="I51" s="84">
         <v>-1.6675607604949946E-2</v>
       </c>
-      <c r="J51" s="91">
+      <c r="J51" s="85">
         <v>-1.6906101040756075E-2</v>
       </c>
-      <c r="K51" s="91">
+      <c r="K51" s="85">
         <v>-1.5860553949285483E-2</v>
       </c>
-      <c r="L51" s="91">
+      <c r="L51" s="85">
         <v>-1.7578235928891919E-2</v>
       </c>
-      <c r="M51" s="91">
+      <c r="M51" s="85">
         <v>-1.7664527126002076E-2</v>
       </c>
-      <c r="N51" s="91">
+      <c r="N51" s="85">
         <v>-1.777083188919067E-2</v>
       </c>
-      <c r="O51" s="91">
+      <c r="O51" s="85">
         <v>-1.652709903980747E-2</v>
       </c>
-      <c r="P51" s="91">
+      <c r="P51" s="85">
         <v>-1.6642175521838425E-2</v>
       </c>
-      <c r="Q51" s="91">
+      <c r="Q51" s="85">
         <v>-1.3192893457985879E-2</v>
       </c>
-      <c r="R51" s="91">
+      <c r="R51" s="85">
         <v>-1.3191451006590423E-2</v>
       </c>
     </row>
@@ -4101,16 +4167,16 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
+      <c r="L52" s="96"/>
+      <c r="M52" s="96"/>
+      <c r="N52" s="96"/>
+      <c r="O52" s="96"/>
+      <c r="P52" s="96"/>
+      <c r="Q52" s="96"/>
+      <c r="R52" s="96"/>
     </row>
     <row r="53" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
@@ -4118,143 +4184,149 @@
         <v>27</v>
       </c>
       <c r="C53" s="19">
+        <f>SUM('Raw CF'!D26:D39)/1000</f>
         <v>20806.22</v>
       </c>
       <c r="D53" s="19">
+        <f>SUM('Raw CF'!E26:E39)/1000</f>
         <v>12356.156000000001</v>
       </c>
       <c r="E53" s="19">
+        <f>SUM('Raw CF'!F26:F39)/1000</f>
         <v>7766.3419999999996</v>
       </c>
       <c r="F53" s="35">
+        <f>'Raw CF'!C86+'Raw CF'!D87+'Raw CF'!B88+'Raw CF'!F89+'Raw CF'!F90+'Raw CF'!E91+'Raw CF'!D92+'Raw CF'!C93+'Raw CF'!D94+'Raw CF'!C95+'Raw CF'!C96+'Raw CF'!F97+'Raw CF'!G98+'Raw CF'!D99</f>
         <v>18677</v>
       </c>
       <c r="G53" s="35">
+        <f>'Raw CF'!D86+'Raw CF'!E87+'Raw CF'!C88+'Raw CF'!G89+'Raw CF'!G90+'Raw CF'!F91+'Raw CF'!E92+'Raw CF'!D93+'Raw CF'!E94+'Raw CF'!D95+'Raw CF'!D96+'Raw CF'!G97+'Raw CF'!H98+'Raw CF'!E99+'Raw CF'!E100</f>
         <v>19518</v>
       </c>
       <c r="H53" s="35">
+        <f>'Raw CF'!E86+'Raw CF'!F87+'Raw CF'!D88+'Raw CF'!H89+'Raw CF'!H90+'Raw CF'!G91+'Raw CF'!F92+'Raw CF'!E93+'Raw CF'!F94+'Raw CF'!E95+'Raw CF'!E96+'Raw CF'!H97+'Raw CF'!I98+'Raw CF'!F99+'Raw CF'!F100</f>
         <v>22229</v>
       </c>
-      <c r="I53" s="76">
-        <f t="shared" ref="I53:R53" si="38">I54*I11</f>
-        <v>14297.529999999999</v>
-      </c>
-      <c r="J53" s="83">
-        <f t="shared" si="38"/>
-        <v>15763.539999999999</v>
-      </c>
-      <c r="K53" s="83">
-        <f t="shared" si="38"/>
-        <v>17220.71</v>
-      </c>
-      <c r="L53" s="83">
-        <f t="shared" si="38"/>
-        <v>18311.28</v>
-      </c>
-      <c r="M53" s="83">
-        <f t="shared" si="38"/>
-        <v>19524.439999999999</v>
-      </c>
-      <c r="N53" s="83">
-        <f t="shared" si="38"/>
-        <v>20629.309999999998</v>
-      </c>
-      <c r="O53" s="83">
-        <f t="shared" si="38"/>
-        <v>21174.92</v>
-      </c>
-      <c r="P53" s="83">
-        <f t="shared" si="38"/>
-        <v>22028.370000000003</v>
-      </c>
-      <c r="Q53" s="83">
-        <f t="shared" si="38"/>
-        <v>23166.260000000002</v>
-      </c>
-      <c r="R53" s="83">
-        <f t="shared" si="38"/>
-        <v>24518.910000000003</v>
+      <c r="I53" s="74">
+        <f t="shared" ref="I53:R53" si="42">I54*I11</f>
+        <v>-10998.1</v>
+      </c>
+      <c r="J53" s="94">
+        <f t="shared" si="42"/>
+        <v>3637.7400000000002</v>
+      </c>
+      <c r="K53" s="94">
+        <f t="shared" si="42"/>
+        <v>3974.01</v>
+      </c>
+      <c r="L53" s="94">
+        <f t="shared" si="42"/>
+        <v>4225.68</v>
+      </c>
+      <c r="M53" s="94">
+        <f t="shared" si="42"/>
+        <v>4505.6400000000003</v>
+      </c>
+      <c r="N53" s="94">
+        <f t="shared" si="42"/>
+        <v>4760.6099999999997</v>
+      </c>
+      <c r="O53" s="94">
+        <f t="shared" si="42"/>
+        <v>4886.5200000000004</v>
+      </c>
+      <c r="P53" s="94">
+        <f t="shared" si="42"/>
+        <v>5083.4700000000012</v>
+      </c>
+      <c r="Q53" s="94">
+        <f t="shared" si="42"/>
+        <v>5346.06</v>
+      </c>
+      <c r="R53" s="94">
+        <f t="shared" si="42"/>
+        <v>5658.2100000000009</v>
       </c>
     </row>
     <row r="54" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="88" t="s">
+      <c r="B54" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="89">
-        <f t="shared" ref="C54:H54" si="39">C53/C11</f>
+      <c r="C54" s="83">
+        <f t="shared" ref="C54:H54" si="43">C53/C11</f>
         <v>5.7423120580262478E-2</v>
       </c>
-      <c r="D54" s="89">
-        <f t="shared" si="39"/>
+      <c r="D54" s="83">
+        <f t="shared" si="43"/>
         <v>2.6743782618180188E-2</v>
       </c>
-      <c r="E54" s="89">
-        <f t="shared" si="39"/>
+      <c r="E54" s="83">
+        <f t="shared" si="43"/>
         <v>1.3462466690529393E-2</v>
       </c>
-      <c r="F54" s="89">
-        <f t="shared" si="39"/>
+      <c r="F54" s="83">
+        <f t="shared" si="43"/>
         <v>2.5042839788576594E-2</v>
       </c>
-      <c r="G54" s="89">
-        <f t="shared" si="39"/>
+      <c r="G54" s="83">
+        <f t="shared" si="43"/>
         <v>2.0510891222288545E-2</v>
       </c>
-      <c r="H54" s="89">
-        <f t="shared" si="39"/>
+      <c r="H54" s="83">
+        <f t="shared" si="43"/>
         <v>2.1246640337361743E-2</v>
       </c>
-      <c r="I54" s="97">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="J54" s="98">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="K54" s="98">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="L54" s="98">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M54" s="98">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="N54" s="98">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="O54" s="98">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="P54" s="98">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="Q54" s="98">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="R54" s="98">
-        <v>1.2999999999999999E-2</v>
+      <c r="I54" s="90">
+        <v>-0.01</v>
+      </c>
+      <c r="J54" s="100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K54" s="100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L54" s="100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M54" s="100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N54" s="100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O54" s="100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P54" s="100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q54" s="100">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R54" s="100">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
     </row>
     <row r="56" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
@@ -4266,11 +4338,11 @@
         <v>-975.0689999999878</v>
       </c>
       <c r="D56" s="12">
-        <f t="shared" ref="D56:G56" si="40">D40+D43</f>
+        <f t="shared" ref="D56:G56" si="44">D40+D43</f>
         <v>-3046.0029999999647</v>
       </c>
       <c r="E56" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>7192.4400000000478</v>
       </c>
       <c r="F56" s="12">
@@ -4278,52 +4350,52 @@
         <v>10861</v>
       </c>
       <c r="G56" s="12">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2254</v>
       </c>
       <c r="H56" s="12">
         <f>H40+H43</f>
         <v>15547</v>
       </c>
-      <c r="I56" s="79">
+      <c r="I56" s="77">
         <f>I40+I43+I35/2</f>
-        <v>32703.180292999998</v>
-      </c>
-      <c r="J56" s="85">
-        <f t="shared" ref="J56:R56" si="41">J40+J43+J35/2</f>
-        <v>38503.804539600009</v>
-      </c>
-      <c r="K56" s="85">
-        <f t="shared" si="41"/>
-        <v>48486.763542999979</v>
-      </c>
-      <c r="L56" s="85">
-        <f t="shared" si="41"/>
-        <v>54863.411999999997</v>
-      </c>
-      <c r="M56" s="85">
-        <f t="shared" si="41"/>
-        <v>62853.678000000014</v>
-      </c>
-      <c r="N56" s="85">
-        <f t="shared" si="41"/>
-        <v>76249.103499999983</v>
-      </c>
-      <c r="O56" s="85">
-        <f t="shared" si="41"/>
-        <v>82256.420000000027</v>
-      </c>
-      <c r="P56" s="85">
-        <f t="shared" si="41"/>
-        <v>91044.947700000033</v>
-      </c>
-      <c r="Q56" s="85">
-        <f t="shared" si="41"/>
-        <v>100595.02900000004</v>
-      </c>
-      <c r="R56" s="85">
-        <f t="shared" si="41"/>
-        <v>111278.12999999998</v>
+        <v>25665.496102999987</v>
+      </c>
+      <c r="J56" s="95">
+        <f t="shared" ref="J56:R56" si="45">J40+J43+J35/2</f>
+        <v>30928.465631399999</v>
+      </c>
+      <c r="K56" s="95">
+        <f t="shared" si="45"/>
+        <v>37461.10738990378</v>
+      </c>
+      <c r="L56" s="95">
+        <f t="shared" si="45"/>
+        <v>41745.159285676797</v>
+      </c>
+      <c r="M56" s="95">
+        <f t="shared" si="45"/>
+        <v>50500.715000000026</v>
+      </c>
+      <c r="N56" s="95">
+        <f t="shared" si="45"/>
+        <v>58601.184583735754</v>
+      </c>
+      <c r="O56" s="95">
+        <f t="shared" si="45"/>
+        <v>66538.113999999972</v>
+      </c>
+      <c r="P56" s="95">
+        <f t="shared" si="45"/>
+        <v>75701.340750000003</v>
+      </c>
+      <c r="Q56" s="95">
+        <f t="shared" si="45"/>
+        <v>85321.741274673215</v>
+      </c>
+      <c r="R56" s="95">
+        <f t="shared" si="45"/>
+        <v>96074.949112696209</v>
       </c>
     </row>
     <row r="57" spans="1:86" x14ac:dyDescent="0.25">
@@ -4336,336 +4408,336 @@
         <v>-18.632999999987788</v>
       </c>
       <c r="D57" s="12">
-        <f t="shared" ref="D57:R57" si="42">D38+D43</f>
+        <f t="shared" ref="D57:R57" si="46">D38+D43</f>
         <v>-2800.5499999999647</v>
       </c>
       <c r="E57" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>11890.092000000048</v>
       </c>
       <c r="F57" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>49337</v>
       </c>
       <c r="G57" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-4467</v>
       </c>
       <c r="H57" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9691</v>
       </c>
-      <c r="I57" s="79">
+      <c r="I57" s="77">
         <f>I38+I43</f>
-        <v>41501.660292999994</v>
-      </c>
-      <c r="J57" s="85">
-        <f t="shared" si="42"/>
-        <v>49720.169539600007</v>
-      </c>
-      <c r="K57" s="85">
-        <f t="shared" si="42"/>
-        <v>58421.788542999981</v>
-      </c>
-      <c r="L57" s="85">
-        <f t="shared" si="42"/>
-        <v>65427.611999999994</v>
-      </c>
-      <c r="M57" s="85">
-        <f t="shared" si="42"/>
-        <v>73366.838000000018</v>
-      </c>
-      <c r="N57" s="85">
-        <f t="shared" si="42"/>
-        <v>87753.910999999993</v>
-      </c>
-      <c r="O57" s="85">
-        <f t="shared" si="42"/>
-        <v>95287.140000000029</v>
-      </c>
-      <c r="P57" s="85">
-        <f t="shared" si="42"/>
-        <v>104600.86770000003</v>
-      </c>
-      <c r="Q57" s="85">
-        <f t="shared" si="42"/>
-        <v>114851.18900000004</v>
-      </c>
-      <c r="R57" s="85">
-        <f t="shared" si="42"/>
-        <v>126366.68999999997</v>
+        <v>22915.971102999989</v>
+      </c>
+      <c r="J57" s="95">
+        <f t="shared" si="46"/>
+        <v>27897.015631400001</v>
+      </c>
+      <c r="K57" s="95">
+        <f t="shared" si="46"/>
+        <v>34149.432389903784</v>
+      </c>
+      <c r="L57" s="95">
+        <f t="shared" si="46"/>
+        <v>38223.759285676795</v>
+      </c>
+      <c r="M57" s="95">
+        <f t="shared" si="46"/>
+        <v>46746.015000000021</v>
+      </c>
+      <c r="N57" s="95">
+        <f t="shared" si="46"/>
+        <v>54634.009583735751</v>
+      </c>
+      <c r="O57" s="95">
+        <f t="shared" si="46"/>
+        <v>62466.013999999974</v>
+      </c>
+      <c r="P57" s="95">
+        <f t="shared" si="46"/>
+        <v>71465.115750000012</v>
+      </c>
+      <c r="Q57" s="95">
+        <f t="shared" si="46"/>
+        <v>80866.691274673212</v>
+      </c>
+      <c r="R57" s="95">
+        <f t="shared" si="46"/>
+        <v>91359.774112696206</v>
       </c>
       <c r="S57" s="62">
         <f>R57*(1+$E$6)</f>
-        <v>128894.02379999998</v>
+        <v>93186.969594950133</v>
       </c>
       <c r="T57" s="62">
-        <f t="shared" ref="T57:CE57" si="43">S57*(1+$E$6)</f>
-        <v>131471.90427599999</v>
+        <f t="shared" ref="T57:CE57" si="47">S57*(1+$E$6)</f>
+        <v>95050.708986849131</v>
       </c>
       <c r="U57" s="62">
-        <f t="shared" si="43"/>
-        <v>134101.34236151999</v>
+        <f t="shared" si="47"/>
+        <v>96951.723166586118</v>
       </c>
       <c r="V57" s="62">
-        <f t="shared" si="43"/>
-        <v>136783.3692087504</v>
+        <f t="shared" si="47"/>
+        <v>98890.757629917847</v>
       </c>
       <c r="W57" s="62">
-        <f t="shared" si="43"/>
-        <v>139519.0365929254</v>
+        <f t="shared" si="47"/>
+        <v>100868.5727825162</v>
       </c>
       <c r="X57" s="62">
-        <f t="shared" si="43"/>
-        <v>142309.41732478392</v>
+        <f t="shared" si="47"/>
+        <v>102885.94423816653</v>
       </c>
       <c r="Y57" s="62">
-        <f t="shared" si="43"/>
-        <v>145155.6056712796</v>
+        <f t="shared" si="47"/>
+        <v>104943.66312292987</v>
       </c>
       <c r="Z57" s="62">
-        <f t="shared" si="43"/>
-        <v>148058.71778470519</v>
+        <f t="shared" si="47"/>
+        <v>107042.53638538846</v>
       </c>
       <c r="AA57" s="62">
-        <f t="shared" si="43"/>
-        <v>151019.89214039929</v>
+        <f t="shared" si="47"/>
+        <v>109183.38711309624</v>
       </c>
       <c r="AB57" s="62">
-        <f t="shared" si="43"/>
-        <v>154040.28998320727</v>
+        <f t="shared" si="47"/>
+        <v>111367.05485535816</v>
       </c>
       <c r="AC57" s="62">
-        <f t="shared" si="43"/>
-        <v>157121.09578287142</v>
+        <f t="shared" si="47"/>
+        <v>113594.39595246533</v>
       </c>
       <c r="AD57" s="62">
-        <f t="shared" si="43"/>
-        <v>160263.51769852886</v>
+        <f t="shared" si="47"/>
+        <v>115866.28387151464</v>
       </c>
       <c r="AE57" s="62">
-        <f t="shared" si="43"/>
-        <v>163468.78805249944</v>
+        <f t="shared" si="47"/>
+        <v>118183.60954894494</v>
       </c>
       <c r="AF57" s="62">
-        <f t="shared" si="43"/>
-        <v>166738.16381354944</v>
+        <f t="shared" si="47"/>
+        <v>120547.28173992384</v>
       </c>
       <c r="AG57" s="62">
-        <f t="shared" si="43"/>
-        <v>170072.92708982044</v>
+        <f t="shared" si="47"/>
+        <v>122958.22737472232</v>
       </c>
       <c r="AH57" s="62">
-        <f t="shared" si="43"/>
-        <v>173474.38563161687</v>
+        <f t="shared" si="47"/>
+        <v>125417.39192221678</v>
       </c>
       <c r="AI57" s="62">
-        <f t="shared" si="43"/>
-        <v>176943.87334424921</v>
+        <f t="shared" si="47"/>
+        <v>127925.73976066112</v>
       </c>
       <c r="AJ57" s="62">
-        <f t="shared" si="43"/>
-        <v>180482.7508111342</v>
+        <f t="shared" si="47"/>
+        <v>130484.25455587434</v>
       </c>
       <c r="AK57" s="62">
-        <f t="shared" si="43"/>
-        <v>184092.40582735688</v>
+        <f t="shared" si="47"/>
+        <v>133093.93964699184</v>
       </c>
       <c r="AL57" s="62">
-        <f t="shared" si="43"/>
-        <v>187774.25394390401</v>
+        <f t="shared" si="47"/>
+        <v>135755.8184399317</v>
       </c>
       <c r="AM57" s="62">
-        <f t="shared" si="43"/>
-        <v>191529.7390227821</v>
+        <f t="shared" si="47"/>
+        <v>138470.93480873032</v>
       </c>
       <c r="AN57" s="62">
-        <f t="shared" si="43"/>
-        <v>195360.33380323774</v>
+        <f t="shared" si="47"/>
+        <v>141240.35350490492</v>
       </c>
       <c r="AO57" s="62">
-        <f t="shared" si="43"/>
-        <v>199267.54047930249</v>
+        <f t="shared" si="47"/>
+        <v>144065.16057500301</v>
       </c>
       <c r="AP57" s="62">
-        <f t="shared" si="43"/>
-        <v>203252.89128888855</v>
+        <f t="shared" si="47"/>
+        <v>146946.46378650307</v>
       </c>
       <c r="AQ57" s="62">
-        <f t="shared" si="43"/>
-        <v>207317.94911466632</v>
+        <f t="shared" si="47"/>
+        <v>149885.39306223314</v>
       </c>
       <c r="AR57" s="62">
-        <f t="shared" si="43"/>
-        <v>211464.30809695966</v>
+        <f t="shared" si="47"/>
+        <v>152883.10092347782</v>
       </c>
       <c r="AS57" s="62">
-        <f t="shared" si="43"/>
-        <v>215693.59425889887</v>
+        <f t="shared" si="47"/>
+        <v>155940.76294194738</v>
       </c>
       <c r="AT57" s="62">
-        <f t="shared" si="43"/>
-        <v>220007.46614407684</v>
+        <f t="shared" si="47"/>
+        <v>159059.57820078635</v>
       </c>
       <c r="AU57" s="62">
-        <f t="shared" si="43"/>
-        <v>224407.61546695838</v>
+        <f t="shared" si="47"/>
+        <v>162240.76976480207</v>
       </c>
       <c r="AV57" s="62">
-        <f t="shared" si="43"/>
-        <v>228895.76777629755</v>
+        <f t="shared" si="47"/>
+        <v>165485.58516009813</v>
       </c>
       <c r="AW57" s="62">
-        <f t="shared" si="43"/>
-        <v>233473.68313182352</v>
+        <f t="shared" si="47"/>
+        <v>168795.29686330009</v>
       </c>
       <c r="AX57" s="62">
-        <f t="shared" si="43"/>
-        <v>238143.15679446</v>
+        <f t="shared" si="47"/>
+        <v>172171.2028005661</v>
       </c>
       <c r="AY57" s="62">
-        <f t="shared" si="43"/>
-        <v>242906.0199303492</v>
+        <f t="shared" si="47"/>
+        <v>175614.62685657744</v>
       </c>
       <c r="AZ57" s="62">
-        <f t="shared" si="43"/>
-        <v>247764.14032895619</v>
+        <f t="shared" si="47"/>
+        <v>179126.91939370899</v>
       </c>
       <c r="BA57" s="62">
-        <f t="shared" si="43"/>
-        <v>252719.42313553533</v>
+        <f t="shared" si="47"/>
+        <v>182709.45778158316</v>
       </c>
       <c r="BB57" s="62">
-        <f t="shared" si="43"/>
-        <v>257773.81159824604</v>
+        <f t="shared" si="47"/>
+        <v>186363.64693721483</v>
       </c>
       <c r="BC57" s="62">
-        <f t="shared" si="43"/>
-        <v>262929.28783021099</v>
+        <f t="shared" si="47"/>
+        <v>190090.91987595914</v>
       </c>
       <c r="BD57" s="62">
-        <f t="shared" si="43"/>
-        <v>268187.8735868152</v>
+        <f t="shared" si="47"/>
+        <v>193892.73827347832</v>
       </c>
       <c r="BE57" s="62">
-        <f t="shared" si="43"/>
-        <v>273551.63105855149</v>
+        <f t="shared" si="47"/>
+        <v>197770.59303894787</v>
       </c>
       <c r="BF57" s="62">
-        <f t="shared" si="43"/>
-        <v>279022.66367972252</v>
+        <f t="shared" si="47"/>
+        <v>201726.00489972683</v>
       </c>
       <c r="BG57" s="62">
-        <f t="shared" si="43"/>
-        <v>284603.11695331696</v>
+        <f t="shared" si="47"/>
+        <v>205760.52499772137</v>
       </c>
       <c r="BH57" s="62">
-        <f t="shared" si="43"/>
-        <v>290295.17929238331</v>
+        <f t="shared" si="47"/>
+        <v>209875.73549767581</v>
       </c>
       <c r="BI57" s="62">
-        <f t="shared" si="43"/>
-        <v>296101.08287823101</v>
+        <f t="shared" si="47"/>
+        <v>214073.25020762932</v>
       </c>
       <c r="BJ57" s="62">
-        <f t="shared" si="43"/>
-        <v>302023.10453579563</v>
+        <f t="shared" si="47"/>
+        <v>218354.71521178191</v>
       </c>
       <c r="BK57" s="62">
-        <f t="shared" si="43"/>
-        <v>308063.56662651157</v>
+        <f t="shared" si="47"/>
+        <v>222721.80951601756</v>
       </c>
       <c r="BL57" s="62">
-        <f t="shared" si="43"/>
-        <v>314224.83795904182</v>
+        <f t="shared" si="47"/>
+        <v>227176.24570633791</v>
       </c>
       <c r="BM57" s="62">
-        <f t="shared" si="43"/>
-        <v>320509.33471822267</v>
+        <f t="shared" si="47"/>
+        <v>231719.77062046467</v>
       </c>
       <c r="BN57" s="62">
-        <f t="shared" si="43"/>
-        <v>326919.52141258714</v>
+        <f t="shared" si="47"/>
+        <v>236354.16603287397</v>
       </c>
       <c r="BO57" s="62">
-        <f t="shared" si="43"/>
-        <v>333457.9118408389</v>
+        <f t="shared" si="47"/>
+        <v>241081.24935353146</v>
       </c>
       <c r="BP57" s="62">
-        <f t="shared" si="43"/>
-        <v>340127.07007765566</v>
+        <f t="shared" si="47"/>
+        <v>245902.87434060208</v>
       </c>
       <c r="BQ57" s="62">
-        <f t="shared" si="43"/>
-        <v>346929.6114792088</v>
+        <f t="shared" si="47"/>
+        <v>250820.93182741414</v>
       </c>
       <c r="BR57" s="62">
-        <f t="shared" si="43"/>
-        <v>353868.20370879298</v>
+        <f t="shared" si="47"/>
+        <v>255837.35046396242</v>
       </c>
       <c r="BS57" s="62">
-        <f t="shared" si="43"/>
-        <v>360945.56778296886</v>
+        <f t="shared" si="47"/>
+        <v>260954.09747324168</v>
       </c>
       <c r="BT57" s="62">
-        <f t="shared" si="43"/>
-        <v>368164.47913862823</v>
+        <f t="shared" si="47"/>
+        <v>266173.17942270654</v>
       </c>
       <c r="BU57" s="62">
-        <f t="shared" si="43"/>
-        <v>375527.76872140082</v>
+        <f t="shared" si="47"/>
+        <v>271496.64301116066</v>
       </c>
       <c r="BV57" s="62">
-        <f t="shared" si="43"/>
-        <v>383038.32409582887</v>
+        <f t="shared" si="47"/>
+        <v>276926.57587138389</v>
       </c>
       <c r="BW57" s="62">
-        <f t="shared" si="43"/>
-        <v>390699.09057774546</v>
+        <f t="shared" si="47"/>
+        <v>282465.10738881159</v>
       </c>
       <c r="BX57" s="62">
-        <f t="shared" si="43"/>
-        <v>398513.07238930039</v>
+        <f t="shared" si="47"/>
+        <v>288114.40953658783</v>
       </c>
       <c r="BY57" s="62">
-        <f t="shared" si="43"/>
-        <v>406483.33383708639</v>
+        <f t="shared" si="47"/>
+        <v>293876.69772731961</v>
       </c>
       <c r="BZ57" s="62">
-        <f t="shared" si="43"/>
-        <v>414613.00051382813</v>
+        <f t="shared" si="47"/>
+        <v>299754.23168186599</v>
       </c>
       <c r="CA57" s="62">
-        <f t="shared" si="43"/>
-        <v>422905.2605241047</v>
+        <f t="shared" si="47"/>
+        <v>305749.31631550333</v>
       </c>
       <c r="CB57" s="62">
-        <f t="shared" si="43"/>
-        <v>431363.36573458678</v>
+        <f t="shared" si="47"/>
+        <v>311864.30264181341</v>
       </c>
       <c r="CC57" s="62">
-        <f t="shared" si="43"/>
-        <v>439990.63304927852</v>
+        <f t="shared" si="47"/>
+        <v>318101.58869464969</v>
       </c>
       <c r="CD57" s="62">
-        <f t="shared" si="43"/>
-        <v>448790.44571026409</v>
+        <f t="shared" si="47"/>
+        <v>324463.62046854268</v>
       </c>
       <c r="CE57" s="62">
-        <f t="shared" si="43"/>
-        <v>457766.25462446938</v>
+        <f t="shared" si="47"/>
+        <v>330952.89287791355</v>
       </c>
       <c r="CF57" s="62">
-        <f t="shared" ref="CF57:CH57" si="44">CE57*(1+$E$6)</f>
-        <v>466921.5797169588</v>
+        <f t="shared" ref="CF57:CH57" si="48">CE57*(1+$E$6)</f>
+        <v>337571.95073547185</v>
       </c>
       <c r="CG57" s="62">
-        <f t="shared" si="44"/>
-        <v>476260.011311298</v>
+        <f t="shared" si="48"/>
+        <v>344323.38975018129</v>
       </c>
       <c r="CH57" s="62">
-        <f t="shared" si="44"/>
-        <v>485785.21153752395</v>
+        <f t="shared" si="48"/>
+        <v>351209.8575451849</v>
       </c>
     </row>
     <row r="58" spans="1:86" x14ac:dyDescent="0.25">
@@ -4677,16 +4749,16 @@
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="84"/>
+      <c r="I58" s="75"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="96"/>
     </row>
     <row r="59" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
@@ -4694,68 +4766,68 @@
         <v>30</v>
       </c>
       <c r="C59" s="12">
-        <f t="shared" ref="C59:R59" si="45">C56+C47+C50-C53</f>
+        <f t="shared" ref="C59:R59" si="49">C56+C47+C50-C53</f>
         <v>-20882.858999999989</v>
       </c>
       <c r="D59" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>-19585.577999999965</v>
       </c>
       <c r="E59" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>2657.0840000000489</v>
       </c>
       <c r="F59" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>-5118</v>
       </c>
       <c r="G59" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>-16594</v>
       </c>
       <c r="H59" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>-4941</v>
       </c>
-      <c r="I59" s="79">
-        <f t="shared" si="45"/>
-        <v>8905.6502929999988</v>
-      </c>
-      <c r="J59" s="85">
-        <f t="shared" si="45"/>
-        <v>12270.264539600006</v>
-      </c>
-      <c r="K59" s="85">
-        <f t="shared" si="45"/>
-        <v>20896.05354299998</v>
-      </c>
-      <c r="L59" s="85">
-        <f t="shared" si="45"/>
-        <v>24142.131999999998</v>
-      </c>
-      <c r="M59" s="85">
-        <f t="shared" si="45"/>
-        <v>29719.238000000016</v>
-      </c>
-      <c r="N59" s="85">
-        <f t="shared" si="45"/>
-        <v>40889.793499999985</v>
-      </c>
-      <c r="O59" s="85">
-        <f t="shared" si="45"/>
-        <v>48151.500000000029</v>
-      </c>
-      <c r="P59" s="85">
-        <f t="shared" si="45"/>
-        <v>55286.577700000031</v>
-      </c>
-      <c r="Q59" s="85">
-        <f t="shared" si="45"/>
-        <v>71098.769000000029</v>
-      </c>
-      <c r="R59" s="85">
-        <f t="shared" si="45"/>
-        <v>79579.219999999972</v>
+      <c r="I59" s="77">
+        <f t="shared" si="49"/>
+        <v>27083.596102999982</v>
+      </c>
+      <c r="J59" s="95">
+        <f t="shared" si="49"/>
+        <v>16270.725631399999</v>
+      </c>
+      <c r="K59" s="95">
+        <f t="shared" si="49"/>
+        <v>22727.097389903778</v>
+      </c>
+      <c r="L59" s="95">
+        <f t="shared" si="49"/>
+        <v>25599.479285676793</v>
+      </c>
+      <c r="M59" s="95">
+        <f t="shared" si="49"/>
+        <v>32945.075000000026</v>
+      </c>
+      <c r="N59" s="95">
+        <f t="shared" si="49"/>
+        <v>39770.574583735754</v>
+      </c>
+      <c r="O59" s="95">
+        <f t="shared" si="49"/>
+        <v>49511.593999999968</v>
+      </c>
+      <c r="P59" s="95">
+        <f t="shared" si="49"/>
+        <v>57837.870750000002</v>
+      </c>
+      <c r="Q59" s="95">
+        <f t="shared" si="49"/>
+        <v>74215.681274673218</v>
+      </c>
+      <c r="R59" s="95">
+        <f t="shared" si="49"/>
+        <v>84066.739112696203</v>
       </c>
     </row>
     <row r="60" spans="1:86" x14ac:dyDescent="0.25">
@@ -4770,44 +4842,44 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="63">
-        <f t="shared" ref="I60:R60" si="46">I59/((1+$E$5)^I9)</f>
-        <v>8055.04501967548</v>
+        <f t="shared" ref="I60:R60" si="50">I59/((1+$E$5)^I9)</f>
+        <v>24709.636339500747</v>
       </c>
       <c r="J60" s="19">
-        <f t="shared" si="46"/>
-        <v>10038.263591961222</v>
+        <f t="shared" si="50"/>
+        <v>13543.377135817645</v>
       </c>
       <c r="K60" s="19">
-        <f t="shared" si="46"/>
-        <v>15462.199653689377</v>
+        <f t="shared" si="50"/>
+        <v>17259.334614230454</v>
       </c>
       <c r="L60" s="19">
-        <f t="shared" si="46"/>
-        <v>16157.901609921013</v>
+        <f t="shared" si="50"/>
+        <v>17736.635147074532</v>
       </c>
       <c r="M60" s="19">
-        <f t="shared" si="46"/>
-        <v>17990.753115016047</v>
+        <f t="shared" si="50"/>
+        <v>20825.269327354428</v>
       </c>
       <c r="N60" s="19">
-        <f t="shared" si="46"/>
-        <v>22388.702524413249</v>
+        <f t="shared" si="50"/>
+        <v>22936.229043860261</v>
       </c>
       <c r="O60" s="19">
-        <f t="shared" si="46"/>
-        <v>23846.583371078937</v>
+        <f t="shared" si="50"/>
+        <v>26051.161129885077</v>
       </c>
       <c r="P60" s="19">
-        <f t="shared" si="46"/>
-        <v>24765.003043080502</v>
+        <f t="shared" si="50"/>
+        <v>27764.668867512075</v>
       </c>
       <c r="Q60" s="19">
-        <f t="shared" si="46"/>
-        <v>28806.009159219047</v>
+        <f t="shared" si="50"/>
+        <v>32503.932360552808</v>
       </c>
       <c r="R60" s="19">
-        <f t="shared" si="46"/>
-        <v>29162.384103706368</v>
+        <f t="shared" si="50"/>
+        <v>33591.117656933173</v>
       </c>
     </row>
     <row r="61" spans="1:86" x14ac:dyDescent="0.25">
@@ -4837,7 +4909,7 @@
       </c>
       <c r="C62" s="25">
         <f>(R59*(1+$E$6))/($E$5-$E$6)</f>
-        <v>948267.34882897395</v>
+        <v>1127162.9310332509</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
@@ -4845,7 +4917,7 @@
       </c>
       <c r="F62" s="19">
         <f>NPV($E$5,I57:CH57)</f>
-        <v>994085.52387974411</v>
+        <v>782482.53502720362</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4866,7 +4938,7 @@
       </c>
       <c r="C63" s="26">
         <f>C62/((1+$E$5)^$R$9)</f>
-        <v>347499.46857425669</v>
+        <v>450388.14440173004</v>
       </c>
       <c r="D63" s="17"/>
       <c r="E63" s="3"/>
@@ -4904,7 +4976,7 @@
       <c r="K64" s="52"/>
       <c r="L64" s="54">
         <f>D70</f>
-        <v>65.037423295863604</v>
+        <v>61.971229183399458</v>
       </c>
       <c r="M64" s="55">
         <v>-0.01</v>
@@ -4936,34 +5008,34 @@
       <c r="F65" s="1"/>
       <c r="G65" s="25">
         <f>C63+SUM(I60:R60)</f>
-        <v>544172.31376601791</v>
+        <v>687309.50602445123</v>
       </c>
       <c r="H65" s="19">
         <f>F62</f>
-        <v>994085.52387974411</v>
+        <v>782482.53502720362</v>
       </c>
       <c r="I65" s="16"/>
       <c r="J65" s="1"/>
       <c r="K65" s="52"/>
       <c r="L65" s="56">
         <f>L66-1%</f>
-        <v>8.6383293578563475E-2</v>
+        <v>7.6074249369029859E-2</v>
       </c>
       <c r="M65" s="57">
         <f t="dataTable" ref="M65:Q69" dt2D="1" dtr="1" r1="E6" r2="E5"/>
-        <v>69.250491645585214</v>
+        <v>66.099778228142597</v>
       </c>
       <c r="N65" s="57">
-        <v>80.623822903171671</v>
+        <v>79.643371155040626</v>
       </c>
       <c r="O65" s="57">
-        <v>88.726445302381578</v>
+        <v>89.761274622601761</v>
       </c>
       <c r="P65" s="57">
-        <v>99.4243124752509</v>
+        <v>103.75284512047882</v>
       </c>
       <c r="Q65" s="57">
-        <v>114.08367779612716</v>
+        <v>124.229599526828</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
@@ -4985,22 +5057,22 @@
       <c r="K66" s="53"/>
       <c r="L66" s="56">
         <f>L67-1%</f>
-        <v>9.638329357856347E-2</v>
+        <v>8.6074249369029854E-2</v>
       </c>
       <c r="M66" s="57">
-        <v>60.640844125831748</v>
+        <v>56.986014970998511</v>
       </c>
       <c r="N66" s="58">
-        <v>69.086012495200109</v>
+        <v>66.7770168928826</v>
       </c>
       <c r="O66" s="58">
-        <v>74.901563622371569</v>
+        <v>73.781060169252186</v>
       </c>
       <c r="P66" s="58">
-        <v>82.353318805839422</v>
+        <v>83.076242400492333</v>
       </c>
       <c r="Q66" s="57">
-        <v>92.186135429560295</v>
+        <v>95.922292077373044</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -5014,11 +5086,11 @@
       <c r="F67" s="6"/>
       <c r="G67" s="31">
         <f>(G65+D65-D66)/D71</f>
-        <v>72728.873783567949</v>
+        <v>92535.536303817964</v>
       </c>
       <c r="H67" s="32">
         <f>(H65+D65-D66)/D71</f>
-        <v>135390.88076319557</v>
+        <v>105772.39708306031</v>
       </c>
       <c r="I67" s="16"/>
       <c r="J67"/>
@@ -5026,22 +5098,22 @@
         <v>1</v>
       </c>
       <c r="L67" s="59">
-        <v>0.10638329357856346</v>
+        <v>9.6074249369029849E-2</v>
       </c>
       <c r="M67" s="57">
-        <v>53.614472195540422</v>
+        <v>49.701877602854502</v>
       </c>
       <c r="N67" s="58">
-        <v>60.014484498368944</v>
+        <v>56.95974234647052</v>
       </c>
       <c r="O67" s="60">
-        <v>64.297302182527531</v>
+        <v>61.971229183399458</v>
       </c>
       <c r="P67" s="58">
-        <v>69.651907202888282</v>
+        <v>68.413698802372835</v>
       </c>
       <c r="Q67" s="57">
-        <v>76.51006912541267</v>
+        <v>76.959437537236909</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -5063,22 +5135,22 @@
       <c r="K68" s="52"/>
       <c r="L68" s="61">
         <f>L67+1%</f>
-        <v>0.11638329357856346</v>
+        <v>0.10607424936902984</v>
       </c>
       <c r="M68" s="57">
-        <v>47.792041533686728</v>
+        <v>43.772888950791987</v>
       </c>
       <c r="N68" s="58">
-        <v>52.727178402286377</v>
+        <v>49.266696373373136</v>
       </c>
       <c r="O68" s="58">
-        <v>55.950126974592791</v>
+        <v>52.949878553132152</v>
       </c>
       <c r="P68" s="58">
-        <v>59.897527024972554</v>
+        <v>57.564615396767849</v>
       </c>
       <c r="Q68" s="57">
-        <v>64.831254846722132</v>
+        <v>63.494876143012945</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
@@ -5100,22 +5172,22 @@
       <c r="K69" s="52"/>
       <c r="L69" s="61">
         <f>L68+1%</f>
-        <v>0.12638329357856345</v>
+        <v>0.11607424936902984</v>
       </c>
       <c r="M69" s="57">
-        <v>42.903925019555714</v>
+        <v>38.872158513472542</v>
       </c>
       <c r="N69" s="57">
-        <v>46.766801578917267</v>
+        <v>43.104956512500017</v>
       </c>
       <c r="O69" s="57">
-        <v>49.237178940266993</v>
+        <v>45.872843119728429</v>
       </c>
       <c r="P69" s="57">
-        <v>52.210450410502375</v>
+        <v>49.267768981144783</v>
       </c>
       <c r="Q69" s="57">
-        <v>55.851273237906533</v>
+        <v>53.520225833825037</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
@@ -5128,16 +5200,16 @@
       </c>
       <c r="D70" s="6">
         <f>(G70+H70)/2</f>
-        <v>65.037423295863604</v>
+        <v>61.971229183399458</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="34">
         <f>G67/D68</f>
-        <v>45.45554611472997</v>
+        <v>57.834710189886231</v>
       </c>
       <c r="H70" s="34">
         <f>H67/D68</f>
-        <v>84.619300476997239</v>
+        <v>66.107748176912693</v>
       </c>
       <c r="I70" s="16"/>
       <c r="J70" s="1"/>
@@ -5151,7 +5223,7 @@
         <v>55</v>
       </c>
       <c r="D71" s="1">
-        <v>7.18</v>
+        <v>7.19</v>
       </c>
     </row>
   </sheetData>
@@ -5163,8 +5235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83D60B4-6D92-41D3-BAC7-D8908937FE27}">
   <dimension ref="A1:AL47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5183,14 +5255,14 @@
       <c r="D1" s="66"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
-      <c r="U1" s="73" t="s">
+      <c r="U1" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
     </row>
     <row r="2" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5203,22 +5275,22 @@
       <c r="O4" s="66"/>
       <c r="P4" s="66"/>
       <c r="Q4" s="66"/>
-      <c r="Y4" s="73" t="s">
+      <c r="Y4" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
-      <c r="AI4" s="73"/>
-      <c r="AJ4" s="73"/>
-      <c r="AK4" s="73"/>
-      <c r="AL4" s="73"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="91"/>
+      <c r="AI4" s="91"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="91"/>
+      <c r="AL4" s="91"/>
     </row>
     <row r="5" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -5240,22 +5312,22 @@
       <c r="W5" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="Y5" s="73" t="s">
+      <c r="Y5" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="Z5" s="73"/>
-      <c r="AC5" s="73" t="s">
+      <c r="Z5" s="91"/>
+      <c r="AC5" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="AD5" s="73"/>
-      <c r="AG5" s="73" t="s">
+      <c r="AD5" s="91"/>
+      <c r="AG5" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="AH5" s="73"/>
-      <c r="AI5" s="73"/>
-      <c r="AJ5" s="73"/>
-      <c r="AK5" s="73"/>
-      <c r="AL5" s="73"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="91"/>
+      <c r="AK5" s="91"/>
+      <c r="AL5" s="91"/>
     </row>
     <row r="6" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -5274,22 +5346,22 @@
         <v>64</v>
       </c>
       <c r="Q6" s="66"/>
-      <c r="Y6" s="73" t="s">
+      <c r="Y6" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="Z6" s="73"/>
-      <c r="AC6" s="73" t="s">
+      <c r="Z6" s="91"/>
+      <c r="AC6" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="AD6" s="73"/>
-      <c r="AG6" s="73" t="s">
+      <c r="AD6" s="91"/>
+      <c r="AG6" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="AH6" s="73"/>
-      <c r="AK6" s="73" t="s">
+      <c r="AH6" s="91"/>
+      <c r="AK6" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="AL6" s="73"/>
+      <c r="AL6" s="91"/>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5304,16 +5376,16 @@
         <v>81</v>
       </c>
       <c r="Q7" s="66"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AK7" s="73" t="s">
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AC7" s="92"/>
+      <c r="AD7" s="92"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AK7" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="AL7" s="73"/>
+      <c r="AL7" s="91"/>
     </row>
     <row r="8" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5328,22 +5400,22 @@
       <c r="F8" s="35">
         <v>510733967</v>
       </c>
-      <c r="M8" s="72" t="s">
+      <c r="M8" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="92"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="92"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
     </row>
     <row r="9" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -6066,11 +6138,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="Y4:AL4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AG5:AL5"/>
     <mergeCell ref="M8:Z8"/>
     <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="AG6:AH6"/>
@@ -6080,6 +6147,11 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AK7:AL7"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="Y4:AL4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AG5:AL5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6087,118 +6159,75 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3C1E35-6635-4EE1-9248-EF55D24947B3}">
-  <dimension ref="A1:P78"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="97.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-    </row>
-    <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="72" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-    </row>
-    <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="72" t="s">
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="66"/>
-      <c r="G6" s="72" t="s">
+      <c r="G6" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="72"/>
-      <c r="I6" s="66"/>
-      <c r="K6" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-    </row>
-    <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="72" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="72"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="66"/>
-      <c r="G7" s="72" t="s">
+      <c r="G7" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="66"/>
-      <c r="K7" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="72"/>
-      <c r="M7" s="66"/>
-      <c r="O7" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="72"/>
-    </row>
-    <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="66"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="66"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="66"/>
-      <c r="O8" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="P8" s="72"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="66"/>
       <c r="E9" s="66"/>
       <c r="G9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -6211,13 +6240,10 @@
       <c r="F10" s="35">
         <v>11890092</v>
       </c>
-      <c r="J10" s="35">
-        <v>1707904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D11" s="67">
         <v>-6915</v>
@@ -6228,16 +6254,13 @@
       <c r="F11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -6250,11 +6273,8 @@
       <c r="F13" s="35">
         <v>5828055</v>
       </c>
-      <c r="J13" s="35">
-        <v>837148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -6267,13 +6287,10 @@
       <c r="F14" s="35">
         <v>3694955</v>
       </c>
-      <c r="J14" s="35">
-        <v>530746</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="35">
         <v>11591</v>
@@ -6284,11 +6301,8 @@
       <c r="F15" s="35">
         <v>65492</v>
       </c>
-      <c r="J15" s="35">
-        <v>9407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -6301,11 +6315,8 @@
       <c r="F16" s="35">
         <v>533117</v>
       </c>
-      <c r="J16" s="35">
-        <v>76577</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -6318,11 +6329,8 @@
       <c r="F17" s="35">
         <v>14812</v>
       </c>
-      <c r="J17" s="35">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -6335,11 +6343,8 @@
       <c r="F18" t="s">
         <v>67</v>
       </c>
-      <c r="J18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -6352,11 +6357,8 @@
       <c r="F19" s="35">
         <v>1954031</v>
       </c>
-      <c r="J19" s="35">
-        <v>280679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -6369,13 +6371,10 @@
       <c r="F20" s="67">
         <v>-3495709</v>
       </c>
-      <c r="J20" s="67">
-        <v>-502127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D21" s="67">
         <v>-74965</v>
@@ -6386,13 +6385,10 @@
       <c r="F21" s="67">
         <v>-1199407</v>
       </c>
-      <c r="J21" s="67">
-        <v>-172284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
         <v>67</v>
@@ -6403,11 +6399,8 @@
       <c r="F22" s="67">
         <v>-3884709</v>
       </c>
-      <c r="J22" s="67">
-        <v>-558004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -6420,11 +6413,8 @@
       <c r="F23" s="35">
         <v>1738219</v>
       </c>
-      <c r="J23" s="35">
-        <v>249680</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -6437,20 +6427,17 @@
       <c r="F24" s="67">
         <v>-124070</v>
       </c>
-      <c r="J24" s="67">
-        <v>-17822</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="67">
+      <c r="D26" s="93">
         <v>-545991</v>
       </c>
       <c r="E26" s="35">
@@ -6459,15 +6446,12 @@
       <c r="F26" s="35">
         <v>3936793</v>
       </c>
-      <c r="J26" s="35">
-        <v>565485</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="67">
+      <c r="D27" s="93">
         <v>-12788337</v>
       </c>
       <c r="E27" s="67">
@@ -6476,15 +6460,12 @@
       <c r="F27" s="67">
         <v>-13915610</v>
       </c>
-      <c r="J27" s="67">
-        <v>-1998852</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="67">
+      <c r="D28" s="93">
         <v>-137457</v>
       </c>
       <c r="E28" s="67">
@@ -6493,15 +6474,12 @@
       <c r="F28" s="67">
         <v>-127812</v>
       </c>
-      <c r="J28" s="67">
-        <v>-18359</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="67">
+      <c r="D29" s="93">
         <v>-328041</v>
       </c>
       <c r="E29" s="67">
@@ -6510,15 +6488,12 @@
       <c r="F29" s="35">
         <v>486067</v>
       </c>
-      <c r="J29" s="35">
-        <v>69819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="93" t="s">
         <v>67</v>
       </c>
       <c r="E30" t="s">
@@ -6527,15 +6502,12 @@
       <c r="F30" s="67">
         <v>-1407345</v>
       </c>
-      <c r="J30" s="67">
-        <v>-202152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="93">
         <v>2456933</v>
       </c>
       <c r="E31" s="35">
@@ -6544,15 +6516,12 @@
       <c r="F31" s="67">
         <v>-1500728</v>
       </c>
-      <c r="J31" s="67">
-        <v>-215566</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="67">
+      <c r="D32" s="93">
         <v>-372576</v>
       </c>
       <c r="E32" s="35">
@@ -6561,15 +6530,12 @@
       <c r="F32" s="67">
         <v>-408937</v>
       </c>
-      <c r="J32" s="67">
-        <v>-58740</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="93">
         <v>26106191</v>
       </c>
       <c r="E33" s="35">
@@ -6578,15 +6544,12 @@
       <c r="F33" s="35">
         <v>10391341</v>
       </c>
-      <c r="J33" s="35">
-        <v>1492623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="93">
         <v>2138964</v>
       </c>
       <c r="E34" s="67">
@@ -6595,15 +6558,12 @@
       <c r="F34" s="35">
         <v>3061018</v>
       </c>
-      <c r="J34" s="35">
-        <v>439688</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="67">
+      <c r="D35" s="93">
         <v>-374042</v>
       </c>
       <c r="E35" s="67">
@@ -6612,15 +6572,12 @@
       <c r="F35" s="35">
         <v>454780</v>
       </c>
-      <c r="J35" s="35">
-        <v>65325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="93">
         <v>92932</v>
       </c>
       <c r="E36" s="35">
@@ -6629,15 +6586,12 @@
       <c r="F36" s="35">
         <v>722781</v>
       </c>
-      <c r="J36" s="35">
-        <v>103821</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>123</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="93">
         <v>4624014</v>
       </c>
       <c r="E37" s="35">
@@ -6646,15 +6600,12 @@
       <c r="F37" s="35">
         <v>4417646</v>
       </c>
-      <c r="J37" s="35">
-        <v>634557</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>124</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="93" t="s">
         <v>67</v>
       </c>
       <c r="E38" t="s">
@@ -6663,15 +6614,12 @@
       <c r="F38" s="35">
         <v>1521635</v>
       </c>
-      <c r="J38" s="35">
-        <v>218569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="67">
+      <c r="D39" s="93">
         <v>-66370</v>
       </c>
       <c r="E39" s="35">
@@ -6680,16 +6628,15 @@
       <c r="F39" s="35">
         <v>134713</v>
       </c>
-      <c r="J39" s="35">
-        <v>19350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="93"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="35">
+        <v>151</v>
+      </c>
+      <c r="D41" s="93">
         <v>29342468</v>
       </c>
       <c r="E41" s="35">
@@ -6698,15 +6645,12 @@
       <c r="F41" s="35">
         <v>24781220</v>
       </c>
-      <c r="J41" s="35">
-        <v>3559600</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="67">
+        <v>152</v>
+      </c>
+      <c r="D42" s="93">
         <v>-2485741</v>
       </c>
       <c r="E42" t="s">
@@ -6715,16 +6659,15 @@
       <c r="F42" t="s">
         <v>67</v>
       </c>
-      <c r="J42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="93"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="93">
         <v>26856727</v>
       </c>
       <c r="E44" s="35">
@@ -6733,15 +6676,25 @@
       <c r="F44" s="35">
         <v>24781220</v>
       </c>
-      <c r="J44" s="35">
-        <v>3559600</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f>D27+D28+D29+D31+D32+D34+D35+D36+D37+D39</f>
+        <v>-4753980</v>
+      </c>
+      <c r="C47" s="67">
+        <f>E27+E28+E29+E31+E32+E34+E35+E36+E37+E39</f>
+        <v>2602454</v>
+      </c>
+      <c r="D47" s="67">
+        <f>F27+F28+F29+F31+F32+F34+F35+F36+F37+F39+F30+F38</f>
+        <v>-6561792</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="66" t="s">
         <v>102</v>
       </c>
@@ -6749,42 +6702,35 @@
       <c r="C49" s="66"/>
       <c r="D49" s="66"/>
     </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>63</v>
       </c>
       <c r="G54" s="66"/>
-      <c r="I54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G55" s="66"/>
-      <c r="I55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>74</v>
       </c>
       <c r="C56" s="66"/>
       <c r="G56" s="66"/>
-      <c r="I56" s="66"/>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -6797,11 +6743,8 @@
       <c r="F57" s="67">
         <v>-24501345</v>
       </c>
-      <c r="J57" s="67">
-        <v>-3519398</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>76</v>
       </c>
@@ -6814,11 +6757,8 @@
       <c r="F58" s="35">
         <v>2018324</v>
       </c>
-      <c r="J58" s="35">
-        <v>289914</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>138</v>
       </c>
@@ -6831,11 +6771,8 @@
       <c r="F59" s="67">
         <v>-770818</v>
       </c>
-      <c r="J59" s="67">
-        <v>-110721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>139</v>
       </c>
@@ -6848,13 +6785,10 @@
       <c r="F60" s="35">
         <v>1009088</v>
       </c>
-      <c r="J60" s="35">
-        <v>144946</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D61" s="67">
         <v>-6207880</v>
@@ -6865,13 +6799,10 @@
       <c r="F61" s="67">
         <v>-10508432</v>
       </c>
-      <c r="J61" s="67">
-        <v>-1509442</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D62" s="35">
         <v>202774</v>
@@ -6882,11 +6813,8 @@
       <c r="F62" s="35">
         <v>3606308</v>
       </c>
-      <c r="J62" s="35">
-        <v>518014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>140</v>
       </c>
@@ -6899,11 +6827,8 @@
       <c r="F63" s="67">
         <v>-43560458</v>
       </c>
-      <c r="J63" s="67">
-        <v>-6257068</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -6916,11 +6841,8 @@
       <c r="F64" s="35">
         <v>44592432</v>
       </c>
-      <c r="J64" s="35">
-        <v>6405302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -6933,11 +6855,8 @@
       <c r="F65" s="67">
         <v>-2597069</v>
       </c>
-      <c r="J65" s="67">
-        <v>-373045</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -6950,11 +6869,8 @@
       <c r="F66" s="67">
         <v>-41449</v>
       </c>
-      <c r="J66" s="67">
-        <v>-5954</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -6967,11 +6883,8 @@
       <c r="F67" s="67">
         <v>-1039106</v>
       </c>
-      <c r="J67" s="67">
-        <v>-149258</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -6984,13 +6897,10 @@
       <c r="F68" s="67">
         <v>-5321968</v>
       </c>
-      <c r="J68" s="67">
-        <v>-764453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
         <v>67</v>
@@ -7001,13 +6911,10 @@
       <c r="F69" s="35">
         <v>7905251</v>
       </c>
-      <c r="J69" s="35">
-        <v>1135518</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D70" s="67">
         <v>-160658</v>
@@ -7018,13 +6925,10 @@
       <c r="F70" s="67">
         <v>-41380</v>
       </c>
-      <c r="J70" s="67">
-        <v>-5944</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D71" s="67">
         <v>-6187891</v>
@@ -7035,13 +6939,10 @@
       <c r="F71" s="35">
         <v>4148796</v>
       </c>
-      <c r="J71" s="35">
-        <v>595937</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72" s="35">
         <v>13027155</v>
@@ -7052,11 +6953,8 @@
       <c r="F72" t="s">
         <v>67</v>
       </c>
-      <c r="J72" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -7069,13 +6967,10 @@
       <c r="F73" s="67">
         <v>-247531</v>
       </c>
-      <c r="J73" s="67">
-        <v>-35556</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D75" s="67">
         <v>-21944120</v>
@@ -7086,13 +6981,10 @@
       <c r="F75" s="67">
         <v>-25349357</v>
       </c>
-      <c r="J75" s="67">
-        <v>-3641208</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D76" s="67">
         <v>-17871171</v>
@@ -7103,11 +6995,8 @@
       <c r="F76" t="s">
         <v>67</v>
       </c>
-      <c r="J76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>127</v>
       </c>
@@ -7120,25 +7009,444 @@
       <c r="F78" s="67">
         <v>-25349357</v>
       </c>
-      <c r="J78" s="67">
-        <v>-3641208</v>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" t="s">
+        <v>171</v>
+      </c>
+      <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>162</v>
+      </c>
+      <c r="B86" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86">
+        <v>-412</v>
+      </c>
+      <c r="D86" s="35">
+        <v>-5632</v>
+      </c>
+      <c r="E86" s="35">
+        <v>-7196</v>
+      </c>
+      <c r="F86" s="35">
+        <v>-1043</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="35">
+        <v>-2300</v>
+      </c>
+      <c r="E87">
+        <v>-107</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88">
+        <v>799</v>
+      </c>
+      <c r="C88" s="35">
+        <v>-16697</v>
+      </c>
+      <c r="D88" s="35">
+        <v>-2278</v>
+      </c>
+      <c r="E88">
+        <v>-330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" t="s">
+        <v>170</v>
+      </c>
+      <c r="E89" t="s">
+        <v>171</v>
+      </c>
+      <c r="F89">
+        <v>-260</v>
+      </c>
+      <c r="G89" s="35">
+        <v>-2539</v>
+      </c>
+      <c r="H89" s="35">
+        <v>-1969</v>
+      </c>
+      <c r="I89">
+        <v>-288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>174</v>
+      </c>
+      <c r="D90" t="s">
+        <v>175</v>
+      </c>
+      <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90">
+        <v>583</v>
+      </c>
+      <c r="G90">
+        <v>-278</v>
+      </c>
+      <c r="H90" s="35">
+        <v>1763</v>
+      </c>
+      <c r="I90">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" t="s">
+        <v>171</v>
+      </c>
+      <c r="E91" s="35">
+        <v>-2922</v>
+      </c>
+      <c r="F91" s="35">
+        <v>-4045</v>
+      </c>
+      <c r="G91">
+        <v>-525</v>
+      </c>
+      <c r="H91">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92">
+        <v>-871</v>
+      </c>
+      <c r="E92" s="35">
+        <v>-1701</v>
+      </c>
+      <c r="F92" s="35">
+        <v>2397</v>
+      </c>
+      <c r="G92">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="35">
+        <v>11095</v>
+      </c>
+      <c r="D93" s="35">
+        <v>32585</v>
+      </c>
+      <c r="E93" s="35">
+        <v>17658</v>
+      </c>
+      <c r="F93" s="35">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" t="s">
+        <v>183</v>
+      </c>
+      <c r="D94" s="35">
+        <v>4052</v>
+      </c>
+      <c r="E94" s="35">
+        <v>8702</v>
+      </c>
+      <c r="F94" s="35">
+        <v>4526</v>
+      </c>
+      <c r="G94">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95">
+        <v>-235</v>
+      </c>
+      <c r="D95">
+        <v>-243</v>
+      </c>
+      <c r="E95">
+        <v>-319</v>
+      </c>
+      <c r="F95">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96">
+        <v>849</v>
+      </c>
+      <c r="D96">
+        <v>-468</v>
+      </c>
+      <c r="E96" s="35">
+        <v>3206</v>
+      </c>
+      <c r="F96">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>172</v>
+      </c>
+      <c r="B97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" t="s">
+        <v>165</v>
+      </c>
+      <c r="D97" t="s">
+        <v>175</v>
+      </c>
+      <c r="E97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F97">
+        <v>282</v>
+      </c>
+      <c r="G97">
+        <v>-66</v>
+      </c>
+      <c r="H97">
+        <v>847</v>
+      </c>
+      <c r="I97">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>186</v>
+      </c>
+      <c r="B98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C98" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" t="s">
+        <v>169</v>
+      </c>
+      <c r="E98" t="s">
+        <v>170</v>
+      </c>
+      <c r="F98" t="s">
+        <v>188</v>
+      </c>
+      <c r="G98" s="35">
+        <v>4784</v>
+      </c>
+      <c r="H98" s="35">
+        <v>5257</v>
+      </c>
+      <c r="I98" s="35">
+        <v>3295</v>
+      </c>
+      <c r="J98">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" t="s">
+        <v>188</v>
+      </c>
+      <c r="D99" s="35">
+        <v>3233</v>
+      </c>
+      <c r="E99" s="35">
+        <v>4180</v>
+      </c>
+      <c r="F99">
+        <v>705</v>
+      </c>
+      <c r="G99">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" t="s">
+        <v>188</v>
+      </c>
+      <c r="D100" t="s">
+        <v>67</v>
+      </c>
+      <c r="E100">
+        <v>570</v>
+      </c>
+      <c r="F100">
+        <v>110</v>
+      </c>
+      <c r="G100">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="35">
+        <f>D87+B88+F89+F90+E91+D92+D94+C95+C96+F97+G98+D99</f>
+        <v>7994</v>
+      </c>
+      <c r="B103" s="35">
+        <f>E87+C88+G89+G90+F91+E92+E94+D95+D96+G97+H98+E99+E100</f>
+        <v>-7435</v>
+      </c>
+      <c r="C103" s="35">
+        <f>F87+D88+H89+H90+G91+F92+F94+E95+E96+H97+I98+F99+F100</f>
+        <v>11767</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="35">
+        <f>E86</f>
+        <v>-7196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="35">
+        <f>D88+F87</f>
+        <v>-2269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="35">
+        <f>E93</f>
+        <v>17658</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="35">
+        <f>E95+F94</f>
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="35">
+        <f>E96</f>
+        <v>3206</v>
+      </c>
+      <c r="C111" s="35">
+        <f>A107+A108+A109+A110+A111+A112</f>
+        <v>22229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="35">
+        <v>6623</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="5">
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7149,7 +7457,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7271,7 +7579,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="43">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -7345,7 +7653,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="21">
         <f>'JD DCF'!D66/'JD DCF'!D71</f>
-        <v>14310.445682451254</v>
+        <v>14290.542420027816</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
@@ -7354,7 +7662,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="21">
         <f>G12+C12</f>
-        <v>69782.44568245126</v>
+        <v>69762.542420027821</v>
       </c>
       <c r="L12" s="2"/>
     </row>
@@ -7365,7 +7673,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="44">
         <f>C12/K12</f>
-        <v>0.79492771366065751</v>
+        <v>0.79515450664072684</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -7374,7 +7682,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="45">
         <f>G12/K12</f>
-        <v>0.20507228633934244</v>
+        <v>0.20484549335927307</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -7390,7 +7698,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="46">
         <f>D7+D8*(D9)</f>
-        <v>0.121</v>
+        <v>0.10899999999999999</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -7407,7 +7715,7 @@
       <c r="J14" s="49"/>
       <c r="K14" s="50">
         <f>C13*C14+G14*G13*(1-D6)</f>
-        <v>0.10559907129591536</v>
+        <v>9.6074249369029849E-2</v>
       </c>
       <c r="L14" s="2"/>
     </row>
